--- a/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.607026811398839</v>
+        <v>2.959041221065661</v>
       </c>
       <c r="C2">
-        <v>0.9359050540385851</v>
+        <v>0.3246883582689009</v>
       </c>
       <c r="D2">
-        <v>0.02227585914952712</v>
+        <v>0.007885728186494134</v>
       </c>
       <c r="E2">
-        <v>0.02351752111276539</v>
+        <v>0.02853555470910685</v>
       </c>
       <c r="F2">
-        <v>2.6044984693483</v>
+        <v>1.944238160227556</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.405392362432295</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03298830932779495</v>
+        <v>0.05991544365384094</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6739883906643556</v>
       </c>
       <c r="L2">
-        <v>0.1377105688619764</v>
+        <v>0.259876692651801</v>
       </c>
       <c r="M2">
-        <v>0.6540753996163602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.203033281147562</v>
+      </c>
+      <c r="O2">
+        <v>1.380548406051503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.246771113867169</v>
+        <v>2.603593554385498</v>
       </c>
       <c r="C3">
-        <v>0.804613898426652</v>
+        <v>0.2810099548676988</v>
       </c>
       <c r="D3">
-        <v>0.02163192283502369</v>
+        <v>0.007193374998962554</v>
       </c>
       <c r="E3">
-        <v>0.02242528437382063</v>
+        <v>0.02830678361577554</v>
       </c>
       <c r="F3">
-        <v>2.333611975838096</v>
+        <v>1.843171747262559</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.284699663623812</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03162388330891197</v>
+        <v>0.060722583868138</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.588447848379424</v>
       </c>
       <c r="L3">
-        <v>0.1201007915493548</v>
+        <v>0.2340665316664001</v>
       </c>
       <c r="M3">
-        <v>0.5647588244742607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.260489752053658</v>
+      </c>
+      <c r="O3">
+        <v>1.309610951320906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.028955552562195</v>
+        <v>2.388728619141546</v>
       </c>
       <c r="C4">
-        <v>0.7254130968416916</v>
+        <v>0.25443211021053</v>
       </c>
       <c r="D4">
-        <v>0.02129951747692616</v>
+        <v>0.006773982244389742</v>
       </c>
       <c r="E4">
-        <v>0.02178979355875121</v>
+        <v>0.02819045741980464</v>
       </c>
       <c r="F4">
-        <v>2.172964334910674</v>
+        <v>1.784724166884217</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.213680425115953</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03084391663010244</v>
+        <v>0.06128588822660141</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5366580293534327</v>
       </c>
       <c r="L4">
-        <v>0.1095378553771518</v>
+        <v>0.2185300568722681</v>
       </c>
       <c r="M4">
-        <v>0.5109023814432732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.297455177173148</v>
+      </c>
+      <c r="O4">
+        <v>1.268739112969996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.940914669058088</v>
+        <v>2.301929075016858</v>
       </c>
       <c r="C5">
-        <v>0.6934376058272846</v>
+        <v>0.243651170629704</v>
       </c>
       <c r="D5">
-        <v>0.02117815140525181</v>
+        <v>0.006604283360472252</v>
       </c>
       <c r="E5">
-        <v>0.02153898116235631</v>
+        <v>0.02814895668624917</v>
       </c>
       <c r="F5">
-        <v>2.108768370171816</v>
+        <v>1.761751628478464</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.185434603605415</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03053937020005648</v>
+        <v>0.06153197012394251</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5157158496092933</v>
       </c>
       <c r="L5">
-        <v>0.1052883148941959</v>
+        <v>0.2122703036665712</v>
       </c>
       <c r="M5">
-        <v>0.48916825952805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.312929004434743</v>
+      </c>
+      <c r="O5">
+        <v>1.252711616353736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.926335507962506</v>
+        <v>2.287559431984562</v>
       </c>
       <c r="C6">
-        <v>0.6881446585479409</v>
+        <v>0.2418637073365204</v>
       </c>
       <c r="D6">
-        <v>0.02115880210591925</v>
+        <v>0.006576171652776353</v>
       </c>
       <c r="E6">
-        <v>0.0214978076549226</v>
+        <v>0.02814241739826162</v>
       </c>
       <c r="F6">
-        <v>2.098180973650813</v>
+        <v>1.75798638582512</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.180784154812969</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03048956941681347</v>
+        <v>0.06157381635985359</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5122476352326402</v>
       </c>
       <c r="L6">
-        <v>0.104585785407032</v>
+        <v>0.2112350061898383</v>
       </c>
       <c r="M6">
-        <v>0.4855712248369244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.315522799624041</v>
+      </c>
+      <c r="O6">
+        <v>1.250086892865745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.027765447155218</v>
+        <v>2.387555049357047</v>
       </c>
       <c r="C7">
-        <v>0.7249807214125497</v>
+        <v>0.2542865269816446</v>
       </c>
       <c r="D7">
-        <v>0.02129782581144468</v>
+        <v>0.006771689023901573</v>
       </c>
       <c r="E7">
-        <v>0.0217863788545376</v>
+        <v>0.02818987403682893</v>
       </c>
       <c r="F7">
-        <v>2.172093625658931</v>
+        <v>1.784411007068925</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.213296779562938</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03083975713113141</v>
+        <v>0.06128914067254776</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5363749648621052</v>
       </c>
       <c r="L7">
-        <v>0.1094803319351563</v>
+        <v>0.2184453547588987</v>
       </c>
       <c r="M7">
-        <v>0.5106084493228522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.297662219914436</v>
+      </c>
+      <c r="O7">
+        <v>1.268520476817791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.482026293064109</v>
+        <v>2.835724360491668</v>
       </c>
       <c r="C8">
-        <v>0.890307423555214</v>
+        <v>0.309571269919843</v>
       </c>
       <c r="D8">
-        <v>0.02203965263367635</v>
+        <v>0.007645671826573164</v>
       </c>
       <c r="E8">
-        <v>0.02313319296574967</v>
+        <v>0.02845155958271306</v>
       </c>
       <c r="F8">
-        <v>2.509818326481636</v>
+        <v>1.908603063310593</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.363085748689031</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03250507983030637</v>
+        <v>0.06017938088112196</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.644328489579685</v>
       </c>
       <c r="L8">
-        <v>0.1315819928741782</v>
+        <v>0.2509085737345202</v>
       </c>
       <c r="M8">
-        <v>0.6230528105729931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.222485364466941</v>
+      </c>
+      <c r="O8">
+        <v>1.355502839820218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.406283427460721</v>
+        <v>3.745897442410126</v>
       </c>
       <c r="C9">
-        <v>1.22855770913452</v>
+        <v>0.4204332303752949</v>
       </c>
       <c r="D9">
-        <v>0.02408331240267714</v>
+        <v>0.009416826942805656</v>
       </c>
       <c r="E9">
-        <v>0.02608750019956219</v>
+        <v>0.029164529598245</v>
       </c>
       <c r="F9">
-        <v>3.225157433667704</v>
+        <v>2.183810862755763</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.685404571485165</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0362916059548013</v>
+        <v>0.0585647418903612</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8629052847399805</v>
       </c>
       <c r="L9">
-        <v>0.1772987898377281</v>
+        <v>0.3173701902267396</v>
       </c>
       <c r="M9">
-        <v>0.8531280335306377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.089135932475031</v>
+      </c>
+      <c r="O9">
+        <v>1.549675952948263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.116278007585947</v>
+        <v>4.440595298996925</v>
       </c>
       <c r="C10">
-        <v>1.490170634445121</v>
+        <v>0.50420758456562</v>
       </c>
       <c r="D10">
-        <v>0.02608791539286415</v>
+        <v>0.01077232592589894</v>
       </c>
       <c r="E10">
-        <v>0.02850309048012001</v>
+        <v>0.02982285921965477</v>
       </c>
       <c r="F10">
-        <v>3.795780344433865</v>
+        <v>2.409973763475691</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.946126168239644</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03948938352466236</v>
+        <v>0.05775779496221745</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.029334705250932</v>
       </c>
       <c r="L10">
-        <v>0.2129636452799488</v>
+        <v>0.3684197775120026</v>
       </c>
       <c r="M10">
-        <v>1.030806903251516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.0007899420903</v>
+      </c>
+      <c r="O10">
+        <v>1.710254993229711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.448786437084664</v>
+        <v>4.764005113969574</v>
       </c>
       <c r="C11">
-        <v>1.613237903773779</v>
+        <v>0.5430330646074708</v>
       </c>
       <c r="D11">
-        <v>0.02714819445750294</v>
+        <v>0.01140591746857567</v>
       </c>
       <c r="E11">
-        <v>0.02966936348335736</v>
+        <v>0.03015473692535053</v>
       </c>
       <c r="F11">
-        <v>4.068514075021966</v>
+        <v>2.519233508899489</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.071640284380152</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04106024762597649</v>
+        <v>0.05748228291110991</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.10672912124447</v>
       </c>
       <c r="L11">
-        <v>0.2298053355930989</v>
+        <v>0.3922538669802975</v>
       </c>
       <c r="M11">
-        <v>1.114256746873018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.9629530885869357</v>
+      </c>
+      <c r="O11">
+        <v>1.788083583283452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.576344370046513</v>
+        <v>4.887695649675948</v>
       </c>
       <c r="C12">
-        <v>1.660543624305035</v>
+        <v>0.5578579215094521</v>
       </c>
       <c r="D12">
-        <v>0.02757498795000402</v>
+        <v>0.01164879080532799</v>
       </c>
       <c r="E12">
-        <v>0.03012207592210459</v>
+        <v>0.03028536593869191</v>
       </c>
       <c r="F12">
-        <v>4.174013979148015</v>
+        <v>2.56163389800642</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.120331852125844</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04167433760431116</v>
+        <v>0.05739198810578117</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.136317200822134</v>
       </c>
       <c r="L12">
-        <v>0.2362879728051581</v>
+        <v>0.4013790654295235</v>
       </c>
       <c r="M12">
-        <v>1.146307320298703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.9489886980380717</v>
+      </c>
+      <c r="O12">
+        <v>1.818325852568094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.548794535258992</v>
+        <v>4.860999584878186</v>
       </c>
       <c r="C13">
-        <v>1.650322128106097</v>
+        <v>0.5546593405155136</v>
       </c>
       <c r="D13">
-        <v>0.02748187522345447</v>
+        <v>0.01159634378711871</v>
       </c>
       <c r="E13">
-        <v>0.03002405974470435</v>
+        <v>0.03025700726795932</v>
       </c>
       <c r="F13">
-        <v>4.151188077240903</v>
+        <v>2.552454713167648</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.109790605352686</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04154118229830317</v>
+        <v>0.05741079565800433</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.129931749195521</v>
       </c>
       <c r="L13">
-        <v>0.2348868628890912</v>
+        <v>0.3994091521816046</v>
       </c>
       <c r="M13">
-        <v>1.139383364730023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.9519795732064225</v>
+      </c>
+      <c r="O13">
+        <v>1.811776962100694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.459246030296413</v>
+        <v>4.774155734549311</v>
       </c>
       <c r="C14">
-        <v>1.617114937170413</v>
+        <v>0.5442501397889714</v>
       </c>
       <c r="D14">
-        <v>0.02718277508742162</v>
+        <v>0.01142583659271068</v>
       </c>
       <c r="E14">
-        <v>0.02970637793734632</v>
+        <v>0.03016538276166081</v>
       </c>
       <c r="F14">
-        <v>4.077147019866004</v>
+        <v>2.522700582159445</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.075621821486706</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04111036775857713</v>
+        <v>0.05747456770800596</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.109157494779538</v>
       </c>
       <c r="L14">
-        <v>0.2303364586233769</v>
+        <v>0.3930025311216099</v>
       </c>
       <c r="M14">
-        <v>1.116884092518269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.9617967870585247</v>
+      </c>
+      <c r="O14">
+        <v>1.790555688061758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.404617968487912</v>
+        <v>4.721125585910102</v>
       </c>
       <c r="C15">
-        <v>1.596869964437303</v>
+        <v>0.537890773169039</v>
       </c>
       <c r="D15">
-        <v>0.0270029899691977</v>
+        <v>0.01132179597547278</v>
       </c>
       <c r="E15">
-        <v>0.02951327461424924</v>
+        <v>0.03010991457565559</v>
       </c>
       <c r="F15">
-        <v>4.032094706764155</v>
+        <v>2.504612387872172</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.054849232663983</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04084906836481927</v>
+        <v>0.05751548510830418</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.096470399167643</v>
       </c>
       <c r="L15">
-        <v>0.2275634104396218</v>
+        <v>0.3890916536706328</v>
       </c>
       <c r="M15">
-        <v>1.103163583716608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.9678582676940977</v>
+      </c>
+      <c r="O15">
+        <v>1.777659973057411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.094762018474739</v>
+        <v>4.419621649064823</v>
       </c>
       <c r="C16">
-        <v>1.482219334357012</v>
+        <v>0.5016862760851382</v>
       </c>
       <c r="D16">
-        <v>0.02602193209648362</v>
+        <v>0.01073130223592855</v>
       </c>
       <c r="E16">
-        <v>0.0284283414751112</v>
+        <v>0.02980184671825192</v>
       </c>
       <c r="F16">
-        <v>3.778248336564019</v>
+        <v>2.402970761710407</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.938076402801812</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03938926965270184</v>
+        <v>0.05777771509981378</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.024313873722733</v>
       </c>
       <c r="L16">
-        <v>0.2118767622885613</v>
+        <v>0.3668754488074768</v>
       </c>
       <c r="M16">
-        <v>1.025412009833957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.003312105665053</v>
+      </c>
+      <c r="O16">
+        <v>1.705271783145207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.907298086383321</v>
+        <v>4.23665944208426</v>
       </c>
       <c r="C17">
-        <v>1.413003450727615</v>
+        <v>0.4796726035199868</v>
       </c>
       <c r="D17">
-        <v>0.02546069492969494</v>
+        <v>0.01037373645721296</v>
       </c>
       <c r="E17">
-        <v>0.02778095436171668</v>
+        <v>0.02962135580063752</v>
       </c>
       <c r="F17">
-        <v>3.626110518671652</v>
+        <v>2.342324197837755</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.868322040830662</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03852517365978514</v>
+        <v>0.05796262779369243</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9805056123567084</v>
       </c>
       <c r="L17">
-        <v>0.2024225018652857</v>
+        <v>0.3534111411780856</v>
       </c>
       <c r="M17">
-        <v>0.9784341165030241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.025681512891431</v>
+      </c>
+      <c r="O17">
+        <v>1.662144501142308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.800351983181713</v>
+        <v>4.132109301665139</v>
       </c>
       <c r="C18">
-        <v>1.373566143865844</v>
+        <v>0.4670770326945046</v>
       </c>
       <c r="D18">
-        <v>0.02515157946729119</v>
+        <v>0.01016963679050598</v>
       </c>
       <c r="E18">
-        <v>0.02741484613531853</v>
+        <v>0.02952057244941564</v>
       </c>
       <c r="F18">
-        <v>3.539820592662835</v>
+        <v>2.308034949983991</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.828840182162253</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03803893212000276</v>
+        <v>0.05807754685101685</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9554643225794024</v>
       </c>
       <c r="L18">
-        <v>0.1970416853953481</v>
+        <v>0.3457235938728616</v>
       </c>
       <c r="M18">
-        <v>0.9516555973382808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.038767526630615</v>
+      </c>
+      <c r="O18">
+        <v>1.637783314475143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.764285014428367</v>
+        <v>4.096823457171297</v>
       </c>
       <c r="C19">
-        <v>1.36027421927713</v>
+        <v>0.462823184407938</v>
       </c>
       <c r="D19">
-        <v>0.0250491603408598</v>
+        <v>0.01010078632456235</v>
       </c>
       <c r="E19">
-        <v>0.02729192311009143</v>
+        <v>0.02948696089892699</v>
       </c>
       <c r="F19">
-        <v>3.5108038473156</v>
+        <v>2.296523923459148</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.815577326957751</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03787607655679182</v>
+        <v>0.05811790205068235</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9470114786776662</v>
       </c>
       <c r="L19">
-        <v>0.1952291709974645</v>
+        <v>0.3431301319584463</v>
       </c>
       <c r="M19">
-        <v>0.9426283592214162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.04323523595648</v>
+      </c>
+      <c r="O19">
+        <v>1.629608996612419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.927161199149793</v>
+        <v>4.256064095729641</v>
       </c>
       <c r="C20">
-        <v>1.420332103861767</v>
+        <v>0.4820090199201843</v>
       </c>
       <c r="D20">
-        <v>0.02551899586632089</v>
+        <v>0.01041163478093843</v>
       </c>
       <c r="E20">
-        <v>0.02784921344657221</v>
+        <v>0.02964025370949841</v>
       </c>
       <c r="F20">
-        <v>3.642177793801295</v>
+        <v>2.348717996919149</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.875680237764257</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03861602700155053</v>
+        <v>0.05794205137310016</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9851526609832604</v>
       </c>
       <c r="L20">
-        <v>0.2034229122477669</v>
+        <v>0.3548384829264961</v>
       </c>
       <c r="M20">
-        <v>0.9834094630481687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.023277336085364</v>
+      </c>
+      <c r="O20">
+        <v>1.666688899898858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.485501576714739</v>
+        <v>4.7996293453362</v>
       </c>
       <c r="C21">
-        <v>1.626848574447649</v>
+        <v>0.5473040832622758</v>
       </c>
       <c r="D21">
-        <v>0.02726990678309349</v>
+        <v>0.01147583432480559</v>
       </c>
       <c r="E21">
-        <v>0.02979937636448859</v>
+        <v>0.03019215813734277</v>
       </c>
       <c r="F21">
-        <v>4.098831496695738</v>
+        <v>2.53141131448551</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.085625011191354</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04123636424515098</v>
+        <v>0.05745544801287039</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.115251458639833</v>
       </c>
       <c r="L21">
-        <v>0.2316700295843077</v>
+        <v>0.3948815032431838</v>
       </c>
       <c r="M21">
-        <v>1.123479827137565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.9589031488160273</v>
+      </c>
+      <c r="O21">
+        <v>1.796767279455835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.860152690261998</v>
+        <v>5.162092234589693</v>
       </c>
       <c r="C22">
-        <v>1.765985466846246</v>
+        <v>0.5907028919370703</v>
       </c>
       <c r="D22">
-        <v>0.02856399270425669</v>
+        <v>0.01218881367125491</v>
       </c>
       <c r="E22">
-        <v>0.03113923843911159</v>
+        <v>0.03058189662153765</v>
       </c>
       <c r="F22">
-        <v>4.410422062292639</v>
+        <v>2.656852450175506</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.229707598094123</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0430625044363353</v>
+        <v>0.05721970665405962</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.201934384864927</v>
       </c>
       <c r="L22">
-        <v>0.2507529311976242</v>
+        <v>0.421639780447137</v>
       </c>
       <c r="M22">
-        <v>1.217688785205141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.9189641795573991</v>
+      </c>
+      <c r="O22">
+        <v>1.886316096719767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.659200668610879</v>
+        <v>4.96792157865292</v>
       </c>
       <c r="C23">
-        <v>1.691299671709544</v>
+        <v>0.5674667667565814</v>
       </c>
       <c r="D23">
-        <v>0.02785811744195854</v>
+        <v>0.01180649759420049</v>
       </c>
       <c r="E23">
-        <v>0.03041764252077606</v>
+        <v>0.03037112298812161</v>
       </c>
       <c r="F23">
-        <v>4.242795019281175</v>
+        <v>2.589310177783091</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.152116564446587</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04207652466599932</v>
+        <v>0.05733768597019306</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.155504800257532</v>
       </c>
       <c r="L23">
-        <v>0.2405050887644578</v>
+        <v>0.4073003416648646</v>
       </c>
       <c r="M23">
-        <v>1.167136750935462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.9400760127933623</v>
+      </c>
+      <c r="O23">
+        <v>1.838077396680177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.918178522577819</v>
+        <v>4.247289278724509</v>
       </c>
       <c r="C24">
-        <v>1.41701772020798</v>
+        <v>0.4809525394332752</v>
       </c>
       <c r="D24">
-        <v>0.0254925961056145</v>
+        <v>0.01039449640836665</v>
       </c>
       <c r="E24">
-        <v>0.02781833466749895</v>
+        <v>0.02963170069451238</v>
       </c>
       <c r="F24">
-        <v>3.634910139584974</v>
+        <v>2.345825570383539</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.872351675493277</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03857491956597059</v>
+        <v>0.05795132721815932</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9830512825407283</v>
       </c>
       <c r="L24">
-        <v>0.202970457953711</v>
+        <v>0.3541930166992699</v>
       </c>
       <c r="M24">
-        <v>0.9811593987649445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.024363563784313</v>
+      </c>
+      <c r="O24">
+        <v>1.664633033854315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.151659699966899</v>
+        <v>3.49564610931418</v>
       </c>
       <c r="C25">
-        <v>1.135116346924065</v>
+        <v>0.3900991675705257</v>
       </c>
       <c r="D25">
-        <v>0.02345378439035173</v>
+        <v>0.008929718977885415</v>
       </c>
       <c r="E25">
-        <v>0.02524955980091903</v>
+        <v>0.02894902306652725</v>
       </c>
       <c r="F25">
-        <v>3.024743935414762</v>
+        <v>2.105515277660515</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.59452874104457</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03520208149568127</v>
+        <v>0.05893781506233253</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8028774493886459</v>
       </c>
       <c r="L25">
-        <v>0.1646168183910781</v>
+        <v>0.2990406764864417</v>
       </c>
       <c r="M25">
-        <v>0.789593864374595</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.123602279881162</v>
+      </c>
+      <c r="O25">
+        <v>1.494276261101959</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.959041221065661</v>
+        <v>0.9593973540598313</v>
       </c>
       <c r="C2">
-        <v>0.3246883582689009</v>
+        <v>0.1529756184477478</v>
       </c>
       <c r="D2">
-        <v>0.007885728186494134</v>
+        <v>0.07464083145428901</v>
       </c>
       <c r="E2">
-        <v>0.02853555470910685</v>
+        <v>0.06474729615723795</v>
       </c>
       <c r="F2">
-        <v>1.944238160227556</v>
+        <v>0.7082505275433491</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05991544365384094</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6739883906643556</v>
+        <v>0.8100812462578517</v>
       </c>
       <c r="L2">
-        <v>0.259876692651801</v>
+        <v>0.1475104692790623</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2043142280305332</v>
       </c>
       <c r="N2">
-        <v>1.203033281147562</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.380548406051503</v>
+        <v>2.294561635425879</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.603593554385498</v>
+        <v>0.8338416326193396</v>
       </c>
       <c r="C3">
-        <v>0.2810099548676988</v>
+        <v>0.1532764535672904</v>
       </c>
       <c r="D3">
-        <v>0.007193374998962554</v>
+        <v>0.07001858818394879</v>
       </c>
       <c r="E3">
-        <v>0.02830678361577554</v>
+        <v>0.06397862227584916</v>
       </c>
       <c r="F3">
-        <v>1.843171747262559</v>
+        <v>0.6841410855648888</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.060722583868138</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.588447848379424</v>
+        <v>0.7071937353266549</v>
       </c>
       <c r="L3">
-        <v>0.2340665316664001</v>
+        <v>0.1340645893662611</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1788369955908564</v>
       </c>
       <c r="N3">
-        <v>1.260489752053658</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.309610951320906</v>
+        <v>2.265487633185643</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.388728619141546</v>
+        <v>0.7570629683832806</v>
       </c>
       <c r="C4">
-        <v>0.25443211021053</v>
+        <v>0.1534992198125096</v>
       </c>
       <c r="D4">
-        <v>0.006773982244389742</v>
+        <v>0.06716549887580925</v>
       </c>
       <c r="E4">
-        <v>0.02819045741980464</v>
+        <v>0.063590439616803</v>
       </c>
       <c r="F4">
-        <v>1.784724166884217</v>
+        <v>0.6705471895346875</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06128588822660141</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5366580293534327</v>
+        <v>0.6440689334350651</v>
       </c>
       <c r="L4">
-        <v>0.2185300568722681</v>
+        <v>0.1259652532659388</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1633076796639443</v>
       </c>
       <c r="N4">
-        <v>1.297455177173148</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.268739112969996</v>
+        <v>2.251624753369356</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.301929075016858</v>
+        <v>0.725840560613932</v>
       </c>
       <c r="C5">
-        <v>0.243651170629704</v>
+        <v>0.153599497267777</v>
       </c>
       <c r="D5">
-        <v>0.006604283360472252</v>
+        <v>0.06599885766090097</v>
       </c>
       <c r="E5">
-        <v>0.02814895668624917</v>
+        <v>0.06345267554393175</v>
       </c>
       <c r="F5">
-        <v>1.761751628478464</v>
+        <v>0.6652979941695065</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06153197012394251</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5157158496092933</v>
+        <v>0.6183478371181366</v>
       </c>
       <c r="L5">
-        <v>0.2122703036665712</v>
+        <v>0.1227015665336282</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1570048388418037</v>
       </c>
       <c r="N5">
-        <v>1.312929004434743</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.252711616353736</v>
+        <v>2.246938054637724</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.287559431984562</v>
+        <v>0.7206596889381558</v>
       </c>
       <c r="C6">
-        <v>0.2418637073365204</v>
+        <v>0.1536167200489444</v>
       </c>
       <c r="D6">
-        <v>0.006576171652776353</v>
+        <v>0.06580489131331291</v>
       </c>
       <c r="E6">
-        <v>0.02814241739826162</v>
+        <v>0.06343101514629446</v>
       </c>
       <c r="F6">
-        <v>1.75798638582512</v>
+        <v>0.6644435226409229</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06157381635985359</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5122476352326402</v>
+        <v>0.6140767707723427</v>
       </c>
       <c r="L6">
-        <v>0.2112350061898383</v>
+        <v>0.1221617895009715</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1559597074234595</v>
       </c>
       <c r="N6">
-        <v>1.315522799624041</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.250086892865745</v>
+        <v>2.246216821332155</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.387555049357047</v>
+        <v>0.7566416436999077</v>
       </c>
       <c r="C7">
-        <v>0.2542865269816446</v>
+        <v>0.1535005338171196</v>
       </c>
       <c r="D7">
-        <v>0.006771689023901573</v>
+        <v>0.06714978154190021</v>
       </c>
       <c r="E7">
-        <v>0.02818987403682893</v>
+        <v>0.0635884998192715</v>
       </c>
       <c r="F7">
-        <v>1.784411007068925</v>
+        <v>0.6704752387278461</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06128914067254776</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5363749648621052</v>
+        <v>0.6437220505845573</v>
       </c>
       <c r="L7">
-        <v>0.2184453547588987</v>
+        <v>0.1259210920098752</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1632225781997576</v>
       </c>
       <c r="N7">
-        <v>1.297662219914436</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.268520476817791</v>
+        <v>2.251557701647073</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.835724360491668</v>
+        <v>0.916032559662824</v>
       </c>
       <c r="C8">
-        <v>0.309571269919843</v>
+        <v>0.1530714037679886</v>
       </c>
       <c r="D8">
-        <v>0.007645671826573164</v>
+        <v>0.07305006646400614</v>
       </c>
       <c r="E8">
-        <v>0.02845155958271306</v>
+        <v>0.06446446964544172</v>
       </c>
       <c r="F8">
-        <v>1.908603063310593</v>
+        <v>0.6996781309742417</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06017938088112196</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.644328489579685</v>
+        <v>0.7745896799154366</v>
       </c>
       <c r="L8">
-        <v>0.2509085737345202</v>
+        <v>0.1428403082864875</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1955041106018101</v>
       </c>
       <c r="N8">
-        <v>1.222485364466941</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.355502839820218</v>
+        <v>2.283684095102188</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.745897442410126</v>
+        <v>1.231728438965433</v>
       </c>
       <c r="C9">
-        <v>0.4204332303752949</v>
+        <v>0.1525354592537909</v>
       </c>
       <c r="D9">
-        <v>0.009416826942805656</v>
+        <v>0.08451205716621502</v>
       </c>
       <c r="E9">
-        <v>0.029164529598245</v>
+        <v>0.06687781322434461</v>
       </c>
       <c r="F9">
-        <v>2.183810862755763</v>
+        <v>0.7671950551282833</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0585647418903612</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8629052847399805</v>
+        <v>1.032070851884498</v>
       </c>
       <c r="L9">
-        <v>0.3173701902267396</v>
+        <v>0.1773808086584978</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2598639876039215</v>
       </c>
       <c r="N9">
-        <v>1.089135932475031</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.549675952948263</v>
+        <v>2.380263255780136</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.440595298996925</v>
+        <v>1.46655655991043</v>
       </c>
       <c r="C10">
-        <v>0.50420758456562</v>
+        <v>0.1523338098192326</v>
       </c>
       <c r="D10">
-        <v>0.01077232592589894</v>
+        <v>0.09288375774272595</v>
       </c>
       <c r="E10">
-        <v>0.02982285921965477</v>
+        <v>0.06912028448038399</v>
       </c>
       <c r="F10">
-        <v>2.409973763475691</v>
+        <v>0.8240156734750599</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05775779496221745</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.029334705250932</v>
+        <v>1.222467027970765</v>
       </c>
       <c r="L10">
-        <v>0.3684197775120026</v>
+        <v>0.2037674488252037</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3080228862904235</v>
       </c>
       <c r="N10">
-        <v>1.0007899420903</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.710254993229711</v>
+        <v>2.474544176661624</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.764005113969574</v>
+        <v>1.574247026395994</v>
       </c>
       <c r="C11">
-        <v>0.5430330646074708</v>
+        <v>0.1522852811561393</v>
       </c>
       <c r="D11">
-        <v>0.01140591746857567</v>
+        <v>0.09668557710103443</v>
       </c>
       <c r="E11">
-        <v>0.03015473692535053</v>
+        <v>0.07025309055611473</v>
       </c>
       <c r="F11">
-        <v>2.519233508899489</v>
+        <v>0.8516615860540355</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05748228291110991</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.10672912124447</v>
+        <v>1.309519037042406</v>
       </c>
       <c r="L11">
-        <v>0.3922538669802975</v>
+        <v>0.2160333774529022</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3301763087199561</v>
       </c>
       <c r="N11">
-        <v>0.9629530885869357</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.788083583283452</v>
+        <v>2.523178978616613</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.887695649675948</v>
+        <v>1.615171707509745</v>
       </c>
       <c r="C12">
-        <v>0.5578579215094521</v>
+        <v>0.1522732567145297</v>
       </c>
       <c r="D12">
-        <v>0.01164879080532799</v>
+        <v>0.09812463806434124</v>
       </c>
       <c r="E12">
-        <v>0.03028536593869191</v>
+        <v>0.07069921236921317</v>
       </c>
       <c r="F12">
-        <v>2.56163389800642</v>
+        <v>0.862409426043655</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05739198810578117</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.136317200822134</v>
+        <v>1.342561529010396</v>
       </c>
       <c r="L12">
-        <v>0.4013790654295235</v>
+        <v>0.220719687003637</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3386054004523871</v>
       </c>
       <c r="N12">
-        <v>0.9489886980380717</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.818325852568094</v>
+        <v>2.542482865559577</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.860999584878186</v>
+        <v>1.606351076191913</v>
       </c>
       <c r="C13">
-        <v>0.5546593405155136</v>
+        <v>0.152275561493127</v>
       </c>
       <c r="D13">
-        <v>0.01159634378711871</v>
+        <v>0.0978147319313365</v>
       </c>
       <c r="E13">
-        <v>0.03025700726795932</v>
+        <v>0.07060235341941734</v>
       </c>
       <c r="F13">
-        <v>2.552454713167648</v>
+        <v>0.860081940628433</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05741079565800433</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.129931749195521</v>
+        <v>1.335441534337718</v>
       </c>
       <c r="L13">
-        <v>0.3994091521816046</v>
+        <v>0.219708500032624</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3367881833759299</v>
       </c>
       <c r="N13">
-        <v>0.9519795732064225</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.811776962100694</v>
+        <v>2.538284968057923</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.774155734549311</v>
+        <v>1.577610905278419</v>
       </c>
       <c r="C14">
-        <v>0.5442501397889714</v>
+        <v>0.1522841637367307</v>
       </c>
       <c r="D14">
-        <v>0.01142583659271068</v>
+        <v>0.09680397966367593</v>
       </c>
       <c r="E14">
-        <v>0.03016538276166081</v>
+        <v>0.07028944384805058</v>
       </c>
       <c r="F14">
-        <v>2.522700582159445</v>
+        <v>0.8525401051483499</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05747456770800596</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.109157494779538</v>
+        <v>1.312235816612542</v>
       </c>
       <c r="L14">
-        <v>0.3930025311216099</v>
+        <v>0.216418069629654</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3308689437007146</v>
       </c>
       <c r="N14">
-        <v>0.9617967870585247</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.790555688061758</v>
+        <v>2.524748982222462</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.721125585910102</v>
+        <v>1.560026179117813</v>
       </c>
       <c r="C15">
-        <v>0.537890773169039</v>
+        <v>0.1522902645107962</v>
       </c>
       <c r="D15">
-        <v>0.01132179597547278</v>
+        <v>0.0961847961034934</v>
       </c>
       <c r="E15">
-        <v>0.03010991457565559</v>
+        <v>0.0701000406860004</v>
       </c>
       <c r="F15">
-        <v>2.504612387872172</v>
+        <v>0.8479574681902591</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05751548510830418</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.096470399167643</v>
+        <v>1.298032224610722</v>
       </c>
       <c r="L15">
-        <v>0.3890916536706328</v>
+        <v>0.2144081012783658</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3272486035088988</v>
       </c>
       <c r="N15">
-        <v>0.9678582676940977</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.777659973057411</v>
+        <v>2.516575181468994</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.419621649064823</v>
+        <v>1.459537846278607</v>
       </c>
       <c r="C16">
-        <v>0.5016862760851382</v>
+        <v>0.1523378622602038</v>
       </c>
       <c r="D16">
-        <v>0.01073130223592855</v>
+        <v>0.09263519660052566</v>
       </c>
       <c r="E16">
-        <v>0.02980184671825192</v>
+        <v>0.06904860021210268</v>
       </c>
       <c r="F16">
-        <v>2.402970761710407</v>
+        <v>0.8222468379870662</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05777771509981378</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.024313873722733</v>
+        <v>1.216788043055402</v>
       </c>
       <c r="L16">
-        <v>0.3668754488074768</v>
+        <v>0.20297143606264</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3065804496151046</v>
       </c>
       <c r="N16">
-        <v>1.003312105665053</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.705271783145207</v>
+        <v>2.47148649072787</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.23665944208426</v>
+        <v>1.398127159339737</v>
       </c>
       <c r="C17">
-        <v>0.4796726035199868</v>
+        <v>0.1523782222326915</v>
       </c>
       <c r="D17">
-        <v>0.01037373645721296</v>
+        <v>0.09045619234044722</v>
       </c>
       <c r="E17">
-        <v>0.02962135580063752</v>
+        <v>0.06843309398019848</v>
       </c>
       <c r="F17">
-        <v>2.342324197837755</v>
+        <v>0.8069487593686091</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05796262779369243</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9805056123567084</v>
+        <v>1.167070025790508</v>
       </c>
       <c r="L17">
-        <v>0.3534111411780856</v>
+        <v>0.1960252142636847</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2939674027840411</v>
       </c>
       <c r="N17">
-        <v>1.025681512891431</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.662144501142308</v>
+        <v>2.445339550561954</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.132109301665139</v>
+        <v>1.362885577362164</v>
       </c>
       <c r="C18">
-        <v>0.4670770326945046</v>
+        <v>0.1524054934585877</v>
       </c>
       <c r="D18">
-        <v>0.01016963679050598</v>
+        <v>0.08920225276925464</v>
       </c>
       <c r="E18">
-        <v>0.02952057244941564</v>
+        <v>0.06808961812301995</v>
       </c>
       <c r="F18">
-        <v>2.308034949983991</v>
+        <v>0.79831763625441</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05807754685101685</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9554643225794024</v>
+        <v>1.138514003106764</v>
       </c>
       <c r="L18">
-        <v>0.3457235938728616</v>
+        <v>0.1920544026510527</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2867355346810569</v>
       </c>
       <c r="N18">
-        <v>1.038767526630615</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.637783314475143</v>
+        <v>2.430837477209877</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.096823457171297</v>
+        <v>1.350966572127703</v>
       </c>
       <c r="C19">
-        <v>0.462823184407938</v>
+        <v>0.1524154198307741</v>
       </c>
       <c r="D19">
-        <v>0.01010078632456235</v>
+        <v>0.0887775718344983</v>
       </c>
       <c r="E19">
-        <v>0.02948696089892699</v>
+        <v>0.06797510670580209</v>
       </c>
       <c r="F19">
-        <v>2.296523923459148</v>
+        <v>0.7954235294652108</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05811790205068235</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9470114786776662</v>
+        <v>1.128851949151652</v>
       </c>
       <c r="L19">
-        <v>0.3431301319584463</v>
+        <v>0.1907140479083296</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2842907292919037</v>
       </c>
       <c r="N19">
-        <v>1.04323523595648</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.629608996612419</v>
+        <v>2.426017767289778</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.256064095729641</v>
+        <v>1.404655988206713</v>
       </c>
       <c r="C20">
-        <v>0.4820090199201843</v>
+        <v>0.1523735049677626</v>
       </c>
       <c r="D20">
-        <v>0.01041163478093843</v>
+        <v>0.09068821436171248</v>
       </c>
       <c r="E20">
-        <v>0.02964025370949841</v>
+        <v>0.06849751742559995</v>
       </c>
       <c r="F20">
-        <v>2.348717996919149</v>
+        <v>0.8085597429271587</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05794205137310016</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9851526609832604</v>
+        <v>1.172358303684831</v>
       </c>
       <c r="L20">
-        <v>0.3548384829264961</v>
+        <v>0.19676209260939</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2953076878144785</v>
       </c>
       <c r="N20">
-        <v>1.023277336085364</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.666688899898858</v>
+        <v>2.448066938251799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.7996293453362</v>
+        <v>1.586048497036074</v>
       </c>
       <c r="C21">
-        <v>0.5473040832622758</v>
+        <v>0.1522814634639005</v>
       </c>
       <c r="D21">
-        <v>0.01147583432480559</v>
+        <v>0.09710087577823856</v>
       </c>
       <c r="E21">
-        <v>0.03019215813734277</v>
+        <v>0.07038087958965633</v>
       </c>
       <c r="F21">
-        <v>2.53141131448551</v>
+        <v>0.8547475852107027</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05745544801287039</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.115251458639833</v>
+        <v>1.319049666017293</v>
       </c>
       <c r="L21">
-        <v>0.3948815032431838</v>
+        <v>0.2173833924105537</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3326064408630529</v>
       </c>
       <c r="N21">
-        <v>0.9589031488160273</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.796767279455835</v>
+        <v>2.528700252709882</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.162092234589693</v>
+        <v>1.705452472011331</v>
       </c>
       <c r="C22">
-        <v>0.5907028919370703</v>
+        <v>0.152258410457577</v>
       </c>
       <c r="D22">
-        <v>0.01218881367125491</v>
+        <v>0.1012885632979348</v>
       </c>
       <c r="E22">
-        <v>0.03058189662153765</v>
+        <v>0.07171223087800271</v>
       </c>
       <c r="F22">
-        <v>2.656852450175506</v>
+        <v>0.8865703649584304</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05721970665405962</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.201934384864927</v>
+        <v>1.415381896614122</v>
       </c>
       <c r="L22">
-        <v>0.421639780447137</v>
+        <v>0.2311042326224566</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3572193508408077</v>
       </c>
       <c r="N22">
-        <v>0.9189641795573991</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.886316096719767</v>
+        <v>2.586599931046237</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.96792157865292</v>
+        <v>1.641639191697521</v>
       </c>
       <c r="C23">
-        <v>0.5674667667565814</v>
+        <v>0.1522672695244438</v>
       </c>
       <c r="D23">
-        <v>0.01180649759420049</v>
+        <v>0.09905370691621584</v>
       </c>
       <c r="E23">
-        <v>0.03037112298812161</v>
+        <v>0.07099214131281428</v>
       </c>
       <c r="F23">
-        <v>2.589310177783091</v>
+        <v>0.8694291024701783</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05733768597019306</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.155504800257532</v>
+        <v>1.363920300979686</v>
       </c>
       <c r="L23">
-        <v>0.4073003416648646</v>
+        <v>0.2237575716511913</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3440597246268879</v>
       </c>
       <c r="N23">
-        <v>0.9400760127933623</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.838077396680177</v>
+        <v>2.555200671564279</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.247289278724509</v>
+        <v>1.401704106085703</v>
       </c>
       <c r="C24">
-        <v>0.4809525394332752</v>
+        <v>0.1523756249835699</v>
       </c>
       <c r="D24">
-        <v>0.01039449640836665</v>
+        <v>0.09058332097150412</v>
       </c>
       <c r="E24">
-        <v>0.02963170069451238</v>
+        <v>0.06846835930401163</v>
       </c>
       <c r="F24">
-        <v>2.345825570383539</v>
+        <v>0.8078309081299864</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05795132721815932</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9830512825407283</v>
+        <v>1.169967388591999</v>
       </c>
       <c r="L24">
-        <v>0.3541930166992699</v>
+        <v>0.1964288795946487</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2947016844420958</v>
       </c>
       <c r="N24">
-        <v>1.024363563784313</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.664633033854315</v>
+        <v>2.446832239513014</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.49564610931418</v>
+        <v>1.145892154482397</v>
       </c>
       <c r="C25">
-        <v>0.3900991675705257</v>
+        <v>0.1526471720108731</v>
       </c>
       <c r="D25">
-        <v>0.008929718977885415</v>
+        <v>0.08142124469960521</v>
       </c>
       <c r="E25">
-        <v>0.02894902306652725</v>
+        <v>0.06614595624779618</v>
       </c>
       <c r="F25">
-        <v>2.105515277660515</v>
+        <v>0.7477364229514478</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05893781506233253</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8028774493886459</v>
+        <v>0.9622543479053434</v>
       </c>
       <c r="L25">
-        <v>0.2990406764864417</v>
+        <v>0.1678730370726313</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.242317055225989</v>
       </c>
       <c r="N25">
-        <v>1.123602279881162</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.494276261101959</v>
+        <v>2.350257665646609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9593973540598313</v>
+        <v>0.5280971303759259</v>
       </c>
       <c r="C2">
-        <v>0.1529756184477478</v>
+        <v>0.2284544404074147</v>
       </c>
       <c r="D2">
-        <v>0.07464083145428901</v>
+        <v>0.06097336337090553</v>
       </c>
       <c r="E2">
-        <v>0.06474729615723795</v>
+        <v>0.1388871599331836</v>
       </c>
       <c r="F2">
-        <v>0.7082505275433491</v>
+        <v>1.181426164879099</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8100812462578517</v>
+        <v>0.26198650538376</v>
       </c>
       <c r="L2">
-        <v>0.1475104692790623</v>
+        <v>0.1918557080100527</v>
       </c>
       <c r="M2">
-        <v>0.2043142280305332</v>
+        <v>0.154433964690341</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.294561635425879</v>
+        <v>4.300780462613432</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8338416326193396</v>
+        <v>0.4935342816661148</v>
       </c>
       <c r="C3">
-        <v>0.1532764535672904</v>
+        <v>0.2284731720940627</v>
       </c>
       <c r="D3">
-        <v>0.07001858818394879</v>
+        <v>0.05921214971375832</v>
       </c>
       <c r="E3">
-        <v>0.06397862227584916</v>
+        <v>0.1394203463867356</v>
       </c>
       <c r="F3">
-        <v>0.6841410855648888</v>
+        <v>1.182560946228818</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7071937353266549</v>
+        <v>0.2308765021766277</v>
       </c>
       <c r="L3">
-        <v>0.1340645893662611</v>
+        <v>0.1893104981600615</v>
       </c>
       <c r="M3">
-        <v>0.1788369955908564</v>
+        <v>0.14793915479855</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.265487633185643</v>
+        <v>4.319256954297458</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7570629683832806</v>
+        <v>0.4724925182315758</v>
       </c>
       <c r="C4">
-        <v>0.1534992198125096</v>
+        <v>0.228500914113404</v>
       </c>
       <c r="D4">
-        <v>0.06716549887580925</v>
+        <v>0.05811692019206305</v>
       </c>
       <c r="E4">
-        <v>0.063590439616803</v>
+        <v>0.1397997322016362</v>
       </c>
       <c r="F4">
-        <v>0.6705471895346875</v>
+        <v>1.183865847586247</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6440689334350651</v>
+        <v>0.2117681803739515</v>
       </c>
       <c r="L4">
-        <v>0.1259652532659388</v>
+        <v>0.1878389323733245</v>
       </c>
       <c r="M4">
-        <v>0.1633076796639443</v>
+        <v>0.1440178982112492</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.251624753369356</v>
+        <v>4.3326428784614</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.725840560613932</v>
+        <v>0.4639636273502106</v>
       </c>
       <c r="C5">
-        <v>0.153599497267777</v>
+        <v>0.2285163272787401</v>
       </c>
       <c r="D5">
-        <v>0.06599885766090097</v>
+        <v>0.05766714504269999</v>
       </c>
       <c r="E5">
-        <v>0.06345267554393175</v>
+        <v>0.1399674318446973</v>
       </c>
       <c r="F5">
-        <v>0.6652979941695065</v>
+        <v>1.184550604753589</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6183478371181366</v>
+        <v>0.2039801166259423</v>
       </c>
       <c r="L5">
-        <v>0.1227015665336282</v>
+        <v>0.1872622499613357</v>
       </c>
       <c r="M5">
-        <v>0.1570048388418037</v>
+        <v>0.1424368054558123</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.246938054637724</v>
+        <v>4.338611232546157</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7206596889381558</v>
+        <v>0.4625501937114507</v>
       </c>
       <c r="C6">
-        <v>0.1536167200489444</v>
+        <v>0.2285191354574181</v>
       </c>
       <c r="D6">
-        <v>0.06580489131331291</v>
+        <v>0.0575922518011609</v>
       </c>
       <c r="E6">
-        <v>0.06343101514629446</v>
+        <v>0.1399960698248606</v>
       </c>
       <c r="F6">
-        <v>0.6644435226409229</v>
+        <v>1.184673551213663</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6140767707723427</v>
+        <v>0.2026868500055201</v>
       </c>
       <c r="L6">
-        <v>0.1221617895009715</v>
+        <v>0.1871678827139647</v>
       </c>
       <c r="M6">
-        <v>0.1559597074234595</v>
+        <v>0.1421752871704491</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.246216821332155</v>
+        <v>4.339633291634669</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7566416436999077</v>
+        <v>0.472377308465866</v>
       </c>
       <c r="C7">
-        <v>0.1535005338171196</v>
+        <v>0.2285011053154982</v>
       </c>
       <c r="D7">
-        <v>0.06714978154190021</v>
+        <v>0.05811086835243628</v>
       </c>
       <c r="E7">
-        <v>0.0635884998192715</v>
+        <v>0.1398019408034727</v>
       </c>
       <c r="F7">
-        <v>0.6704752387278461</v>
+        <v>1.183874462871678</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6437220505845573</v>
+        <v>0.2116631524149994</v>
       </c>
       <c r="L7">
-        <v>0.1259210920098752</v>
+        <v>0.1878310618583683</v>
       </c>
       <c r="M7">
-        <v>0.1632225781997576</v>
+        <v>0.1439965066677438</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.251557701647073</v>
+        <v>4.332721290467617</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.916032559662824</v>
+        <v>0.5161428231540697</v>
       </c>
       <c r="C8">
-        <v>0.1530714037679886</v>
+        <v>0.2284575427020457</v>
       </c>
       <c r="D8">
-        <v>0.07305006646400614</v>
+        <v>0.06036897987345213</v>
       </c>
       <c r="E8">
-        <v>0.06446446964544172</v>
+        <v>0.1390602199416655</v>
       </c>
       <c r="F8">
-        <v>0.6996781309742417</v>
+        <v>1.181691261537352</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7745896799154366</v>
+        <v>0.2512613907876471</v>
       </c>
       <c r="L8">
-        <v>0.1428403082864875</v>
+        <v>0.1909592244000109</v>
       </c>
       <c r="M8">
-        <v>0.1955041106018101</v>
+        <v>0.1521807975338625</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.283684095102188</v>
+        <v>4.306727593939939</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.231728438965433</v>
+        <v>0.603375553896683</v>
       </c>
       <c r="C9">
-        <v>0.1525354592537909</v>
+        <v>0.2284999591784</v>
       </c>
       <c r="D9">
-        <v>0.08451205716621502</v>
+        <v>0.06468667661751226</v>
       </c>
       <c r="E9">
-        <v>0.06687781322434461</v>
+        <v>0.1380175735433795</v>
       </c>
       <c r="F9">
-        <v>0.7671950551282833</v>
+        <v>1.182233243122447</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.032070851884498</v>
+        <v>0.3288466244276265</v>
       </c>
       <c r="L9">
-        <v>0.1773808086584978</v>
+        <v>0.1978151420177596</v>
       </c>
       <c r="M9">
-        <v>0.2598639876039215</v>
+        <v>0.1687546674975096</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.380263255780136</v>
+        <v>4.27194527623476</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.46655655991043</v>
+        <v>0.6683052358698376</v>
       </c>
       <c r="C10">
-        <v>0.1523338098192326</v>
+        <v>0.2286077519738399</v>
       </c>
       <c r="D10">
-        <v>0.09288375774272595</v>
+        <v>0.06779093721596752</v>
       </c>
       <c r="E10">
-        <v>0.06912028448038399</v>
+        <v>0.137501650542287</v>
       </c>
       <c r="F10">
-        <v>0.8240156734750599</v>
+        <v>1.185570924565738</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.222467027970765</v>
+        <v>0.3857946177261908</v>
       </c>
       <c r="L10">
-        <v>0.2037674488252037</v>
+        <v>0.2032901012923389</v>
       </c>
       <c r="M10">
-        <v>0.3080228862904235</v>
+        <v>0.1812475312340851</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.474544176661624</v>
+        <v>4.256257972841098</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.574247026395994</v>
+        <v>0.6980221968194371</v>
       </c>
       <c r="C11">
-        <v>0.1522852811561393</v>
+        <v>0.2286731601045133</v>
       </c>
       <c r="D11">
-        <v>0.09668557710103443</v>
+        <v>0.06918827726064336</v>
       </c>
       <c r="E11">
-        <v>0.07025309055611473</v>
+        <v>0.1373210524912452</v>
       </c>
       <c r="F11">
-        <v>0.8516615860540355</v>
+        <v>1.187727542644694</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.309519037042406</v>
+        <v>0.4116876050145777</v>
       </c>
       <c r="L11">
-        <v>0.2160333774529022</v>
+        <v>0.2058755181219141</v>
       </c>
       <c r="M11">
-        <v>0.3301763087199561</v>
+        <v>0.1869987861070896</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.523178978616613</v>
+        <v>4.251263587692108</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.615171707509745</v>
+        <v>0.7093006842721081</v>
       </c>
       <c r="C12">
-        <v>0.1522732567145297</v>
+        <v>0.2287002600376695</v>
       </c>
       <c r="D12">
-        <v>0.09812463806434124</v>
+        <v>0.0697152689615379</v>
       </c>
       <c r="E12">
-        <v>0.07069921236921317</v>
+        <v>0.1372604262445059</v>
       </c>
       <c r="F12">
-        <v>0.862409426043655</v>
+        <v>1.188635940907702</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.342561529010396</v>
+        <v>0.4214904134900905</v>
       </c>
       <c r="L12">
-        <v>0.220719687003637</v>
+        <v>0.206868136836647</v>
       </c>
       <c r="M12">
-        <v>0.3386054004523871</v>
+        <v>0.1891863525037607</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.542482865559577</v>
+        <v>4.249680246584859</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.606351076191913</v>
+        <v>0.7068705433752882</v>
       </c>
       <c r="C13">
-        <v>0.152275561493127</v>
+        <v>0.2286943202625267</v>
       </c>
       <c r="D13">
-        <v>0.0978147319313365</v>
+        <v>0.06960186786816536</v>
       </c>
       <c r="E13">
-        <v>0.07060235341941734</v>
+        <v>0.1372731382293608</v>
       </c>
       <c r="F13">
-        <v>0.860081940628433</v>
+        <v>1.188436222033957</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.335441534337718</v>
+        <v>0.4193793127943195</v>
       </c>
       <c r="L13">
-        <v>0.219708500032624</v>
+        <v>0.2066537557146972</v>
       </c>
       <c r="M13">
-        <v>0.3367881833759299</v>
+        <v>0.1887147917506127</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.538284968057923</v>
+        <v>4.250007553553615</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.577610905278419</v>
+        <v>0.6989495806644754</v>
       </c>
       <c r="C14">
-        <v>0.1522841637367307</v>
+        <v>0.2286753430418926</v>
       </c>
       <c r="D14">
-        <v>0.09680397966367593</v>
+        <v>0.06923167641241434</v>
       </c>
       <c r="E14">
-        <v>0.07028944384805058</v>
+        <v>0.1373159092617193</v>
       </c>
       <c r="F14">
-        <v>0.8525401051483499</v>
+        <v>1.187800438933309</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.312235816612542</v>
+        <v>0.4124941366732457</v>
       </c>
       <c r="L14">
-        <v>0.216418069629654</v>
+        <v>0.2059569096864209</v>
       </c>
       <c r="M14">
-        <v>0.3308689437007146</v>
+        <v>0.187178564944027</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.524748982222462</v>
+        <v>4.251127154418469</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.560026179117813</v>
+        <v>0.6941010423522869</v>
       </c>
       <c r="C15">
-        <v>0.1522902645107962</v>
+        <v>0.2286640218686387</v>
       </c>
       <c r="D15">
-        <v>0.0961847961034934</v>
+        <v>0.06900464272985829</v>
       </c>
       <c r="E15">
-        <v>0.0701000406860004</v>
+        <v>0.1373431181355009</v>
       </c>
       <c r="F15">
-        <v>0.8479574681902591</v>
+        <v>1.187422948328503</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.298032224610722</v>
+        <v>0.4082764543383348</v>
       </c>
       <c r="L15">
-        <v>0.2144081012783658</v>
+        <v>0.205531837807456</v>
       </c>
       <c r="M15">
-        <v>0.3272486035088988</v>
+        <v>0.1862388403273059</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.516575181468994</v>
+        <v>4.251853040963965</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.459537846278607</v>
+        <v>0.6663667373215105</v>
       </c>
       <c r="C16">
-        <v>0.1523378622602038</v>
+        <v>0.2286038048814518</v>
       </c>
       <c r="D16">
-        <v>0.09263519660052566</v>
+        <v>0.06769931799706086</v>
       </c>
       <c r="E16">
-        <v>0.06904860021210268</v>
+        <v>0.1375145401930524</v>
       </c>
       <c r="F16">
-        <v>0.8222468379870662</v>
+        <v>1.1854428241476</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.216788043055402</v>
+        <v>0.3841021518123</v>
       </c>
       <c r="L16">
-        <v>0.20297143606264</v>
+        <v>0.203123041408162</v>
       </c>
       <c r="M16">
-        <v>0.3065804496151046</v>
+        <v>0.1808730355445078</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.47148649072787</v>
+        <v>4.256627461071218</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.398127159339737</v>
+        <v>0.6493983586543948</v>
       </c>
       <c r="C17">
-        <v>0.1523782222326915</v>
+        <v>0.2285710406288359</v>
       </c>
       <c r="D17">
-        <v>0.09045619234044722</v>
+        <v>0.06689473637107568</v>
       </c>
       <c r="E17">
-        <v>0.06843309398019848</v>
+        <v>0.1376335458175735</v>
       </c>
       <c r="F17">
-        <v>0.8069487593686091</v>
+        <v>1.184391527144953</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.167070025790508</v>
+        <v>0.3692683701772523</v>
       </c>
       <c r="L17">
-        <v>0.1960252142636847</v>
+        <v>0.2016695691995096</v>
       </c>
       <c r="M17">
-        <v>0.2939674027840411</v>
+        <v>0.1775986713559163</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.445339550561954</v>
+        <v>4.260104941671926</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.362885577362164</v>
+        <v>0.6396555847836964</v>
       </c>
       <c r="C18">
-        <v>0.1524054934585877</v>
+        <v>0.2285537379304472</v>
       </c>
       <c r="D18">
-        <v>0.08920225276925464</v>
+        <v>0.06643057021173604</v>
       </c>
       <c r="E18">
-        <v>0.06808961812301995</v>
+        <v>0.1377070876661985</v>
       </c>
       <c r="F18">
-        <v>0.79831763625441</v>
+        <v>1.183846930933967</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.138514003106764</v>
+        <v>0.3607351796930232</v>
       </c>
       <c r="L18">
-        <v>0.1920544026510527</v>
+        <v>0.2008424998464449</v>
       </c>
       <c r="M18">
-        <v>0.2867355346810569</v>
+        <v>0.1757217687344621</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.430837477209877</v>
+        <v>4.262306701687379</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.350966572127703</v>
+        <v>0.6363597845474374</v>
       </c>
       <c r="C19">
-        <v>0.1524154198307741</v>
+        <v>0.2285481451565161</v>
       </c>
       <c r="D19">
-        <v>0.0887775718344983</v>
+        <v>0.06627317310227454</v>
       </c>
       <c r="E19">
-        <v>0.06797510670580209</v>
+        <v>0.1377328629085675</v>
       </c>
       <c r="F19">
-        <v>0.7954235294652108</v>
+        <v>1.183672860715404</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.128851949151652</v>
+        <v>0.3578457968743862</v>
       </c>
       <c r="L19">
-        <v>0.1907140479083296</v>
+        <v>0.2005640038084664</v>
       </c>
       <c r="M19">
-        <v>0.2842907292919037</v>
+        <v>0.1750873887549318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.426017767289778</v>
+        <v>4.263086807829268</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.404655988206713</v>
+        <v>0.6512029174816689</v>
       </c>
       <c r="C20">
-        <v>0.1523735049677626</v>
+        <v>0.2285743689709037</v>
       </c>
       <c r="D20">
-        <v>0.09068821436171248</v>
+        <v>0.06698052969372981</v>
       </c>
       <c r="E20">
-        <v>0.06849751742559995</v>
+        <v>0.1376203504858644</v>
       </c>
       <c r="F20">
-        <v>0.8085597429271587</v>
+        <v>1.18449722161094</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.172358303684831</v>
+        <v>0.3708475780983633</v>
       </c>
       <c r="L20">
-        <v>0.19676209260939</v>
+        <v>0.2018233700639627</v>
       </c>
       <c r="M20">
-        <v>0.2953076878144785</v>
+        <v>0.1779465688739776</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.448066938251799</v>
+        <v>4.259713893052719</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.586048497036074</v>
+        <v>0.7012754768942671</v>
       </c>
       <c r="C21">
-        <v>0.1522814634639005</v>
+        <v>0.2286808540230254</v>
       </c>
       <c r="D21">
-        <v>0.09710087577823856</v>
+        <v>0.06934046915841208</v>
       </c>
       <c r="E21">
-        <v>0.07038087958965633</v>
+        <v>0.1373031358403409</v>
       </c>
       <c r="F21">
-        <v>0.8547475852107027</v>
+        <v>1.187984694628099</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.319049666017293</v>
+        <v>0.4145165458491817</v>
       </c>
       <c r="L21">
-        <v>0.2173833924105537</v>
+        <v>0.2061612222386486</v>
       </c>
       <c r="M21">
-        <v>0.3326064408630529</v>
+        <v>0.1876295298962916</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.528700252709882</v>
+        <v>4.250789944102905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.705452472011331</v>
+        <v>0.7341480999820362</v>
       </c>
       <c r="C22">
-        <v>0.152258410457577</v>
+        <v>0.2287640262116355</v>
       </c>
       <c r="D22">
-        <v>0.1012885632979348</v>
+        <v>0.07087028030135656</v>
       </c>
       <c r="E22">
-        <v>0.07171223087800271</v>
+        <v>0.1371410546165386</v>
       </c>
       <c r="F22">
-        <v>0.8865703649584304</v>
+        <v>1.190798630028709</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.415381896614122</v>
+        <v>0.4430431074108867</v>
       </c>
       <c r="L22">
-        <v>0.2311042326224566</v>
+        <v>0.2090753718650404</v>
       </c>
       <c r="M22">
-        <v>0.3572193508408077</v>
+        <v>0.19401433820601</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.586599931046237</v>
+        <v>4.246752411474233</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.641639191697521</v>
+        <v>0.7165900754359029</v>
       </c>
       <c r="C23">
-        <v>0.1522672695244438</v>
+        <v>0.2287184008072245</v>
       </c>
       <c r="D23">
-        <v>0.09905370691621584</v>
+        <v>0.070054946452629</v>
       </c>
       <c r="E23">
-        <v>0.07099214131281428</v>
+        <v>0.137223426817382</v>
       </c>
       <c r="F23">
-        <v>0.8694291024701783</v>
+        <v>1.189247874675303</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.363920300979686</v>
+        <v>0.4278193381064455</v>
       </c>
       <c r="L23">
-        <v>0.2237575716511913</v>
+        <v>0.207512816085611</v>
       </c>
       <c r="M23">
-        <v>0.3440597246268879</v>
+        <v>0.1906015199495528</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.555200671564279</v>
+        <v>4.248743119533856</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.401704106085703</v>
+        <v>0.6503870372293932</v>
       </c>
       <c r="C24">
-        <v>0.1523756249835699</v>
+        <v>0.2285728594479224</v>
       </c>
       <c r="D24">
-        <v>0.09058332097150412</v>
+        <v>0.06694174751909543</v>
       </c>
       <c r="E24">
-        <v>0.06846835930401163</v>
+        <v>0.137626300133693</v>
       </c>
       <c r="F24">
-        <v>0.8078309081299864</v>
+        <v>1.184449250838497</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.169967388591999</v>
+        <v>0.3701336339010481</v>
       </c>
       <c r="L24">
-        <v>0.1964288795946487</v>
+        <v>0.201753810053134</v>
       </c>
       <c r="M24">
-        <v>0.2947016844420958</v>
+        <v>0.1777892670387047</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.446832239513014</v>
+        <v>4.259890055314429</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.145892154482397</v>
+        <v>0.5796279470783077</v>
       </c>
       <c r="C25">
-        <v>0.1526471720108731</v>
+        <v>0.2284749341384327</v>
       </c>
       <c r="D25">
-        <v>0.08142124469960521</v>
+        <v>0.06353051403530685</v>
       </c>
       <c r="E25">
-        <v>0.06614595624779618</v>
+        <v>0.1382556448363506</v>
       </c>
       <c r="F25">
-        <v>0.7477364229514478</v>
+        <v>1.181570350968265</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9622543479053434</v>
+        <v>0.3078662799450171</v>
       </c>
       <c r="L25">
-        <v>0.1678730370726313</v>
+        <v>0.1958833880416435</v>
       </c>
       <c r="M25">
-        <v>0.242317055225989</v>
+        <v>0.1642152292170067</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.350257665646609</v>
+        <v>4.279621775039516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5280971303759259</v>
+        <v>0.959397354059746</v>
       </c>
       <c r="C2">
-        <v>0.2284544404074147</v>
+        <v>0.1529756184475275</v>
       </c>
       <c r="D2">
-        <v>0.06097336337090553</v>
+        <v>0.07464083145447376</v>
       </c>
       <c r="E2">
-        <v>0.1388871599331836</v>
+        <v>0.06474729615722552</v>
       </c>
       <c r="F2">
-        <v>1.181426164879099</v>
+        <v>0.7082505275433491</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.26198650538376</v>
+        <v>0.8100812462579086</v>
       </c>
       <c r="L2">
-        <v>0.1918557080100527</v>
+        <v>0.1475104692788634</v>
       </c>
       <c r="M2">
-        <v>0.154433964690341</v>
+        <v>0.2043142280305297</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.300780462613432</v>
+        <v>2.29456163542585</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4935342816661148</v>
+        <v>0.8338416326192828</v>
       </c>
       <c r="C3">
-        <v>0.2284731720940627</v>
+        <v>0.1532764535671554</v>
       </c>
       <c r="D3">
-        <v>0.05921214971375832</v>
+        <v>0.07001858818389906</v>
       </c>
       <c r="E3">
-        <v>0.1394203463867356</v>
+        <v>0.06397862227585271</v>
       </c>
       <c r="F3">
-        <v>1.182560946228818</v>
+        <v>0.6841410855648817</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2308765021766277</v>
+        <v>0.7071937353267117</v>
       </c>
       <c r="L3">
-        <v>0.1893104981600615</v>
+        <v>0.1340645893662185</v>
       </c>
       <c r="M3">
-        <v>0.14793915479855</v>
+        <v>0.1788369955908493</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.319256954297458</v>
+        <v>2.265487633185643</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4724925182315758</v>
+        <v>0.7570629683832806</v>
       </c>
       <c r="C4">
-        <v>0.228500914113404</v>
+        <v>0.1534992198125877</v>
       </c>
       <c r="D4">
-        <v>0.05811692019206305</v>
+        <v>0.06716549887571688</v>
       </c>
       <c r="E4">
-        <v>0.1397997322016362</v>
+        <v>0.06359043961681721</v>
       </c>
       <c r="F4">
-        <v>1.183865847586247</v>
+        <v>0.6705471895346804</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2117681803739515</v>
+        <v>0.6440689334350367</v>
       </c>
       <c r="L4">
-        <v>0.1878389323733245</v>
+        <v>0.1259652532659032</v>
       </c>
       <c r="M4">
-        <v>0.1440178982112492</v>
+        <v>0.1633076796639479</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.3326428784614</v>
+        <v>2.251624753369356</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4639636273502106</v>
+        <v>0.7258405606140457</v>
       </c>
       <c r="C5">
-        <v>0.2285163272787401</v>
+        <v>0.1535994972680967</v>
       </c>
       <c r="D5">
-        <v>0.05766714504269999</v>
+        <v>0.06599885766073754</v>
       </c>
       <c r="E5">
-        <v>0.1399674318446973</v>
+        <v>0.06345267554394418</v>
       </c>
       <c r="F5">
-        <v>1.184550604753589</v>
+        <v>0.6652979941694639</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2039801166259423</v>
+        <v>0.6183478371182076</v>
       </c>
       <c r="L5">
-        <v>0.1872622499613357</v>
+        <v>0.1227015665335713</v>
       </c>
       <c r="M5">
-        <v>0.1424368054558123</v>
+        <v>0.1570048388418037</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.338611232546157</v>
+        <v>2.246938054637667</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4625501937114507</v>
+        <v>0.7206596889381558</v>
       </c>
       <c r="C6">
-        <v>0.2285191354574181</v>
+        <v>0.1536167200487064</v>
       </c>
       <c r="D6">
-        <v>0.0575922518011609</v>
+        <v>0.06580489131319212</v>
       </c>
       <c r="E6">
-        <v>0.1399960698248606</v>
+        <v>0.06343101514630867</v>
       </c>
       <c r="F6">
-        <v>1.184673551213663</v>
+        <v>0.6644435226409087</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2026868500055201</v>
+        <v>0.6140767707723853</v>
       </c>
       <c r="L6">
-        <v>0.1871678827139647</v>
+        <v>0.1221617895009572</v>
       </c>
       <c r="M6">
-        <v>0.1421752871704491</v>
+        <v>0.1559597074234453</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.339633291634669</v>
+        <v>2.246216821332155</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.472377308465866</v>
+        <v>0.7566416436999361</v>
       </c>
       <c r="C7">
-        <v>0.2285011053154982</v>
+        <v>0.1535005338168887</v>
       </c>
       <c r="D7">
-        <v>0.05811086835243628</v>
+        <v>0.06714978154202811</v>
       </c>
       <c r="E7">
-        <v>0.1398019408034727</v>
+        <v>0.06358849981927328</v>
       </c>
       <c r="F7">
-        <v>1.183874462871678</v>
+        <v>0.6704752387278177</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2116631524149994</v>
+        <v>0.6437220505845858</v>
       </c>
       <c r="L7">
-        <v>0.1878310618583683</v>
+        <v>0.1259210920099605</v>
       </c>
       <c r="M7">
-        <v>0.1439965066677438</v>
+        <v>0.1632225781997612</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.332721290467617</v>
+        <v>2.251557701647044</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5161428231540697</v>
+        <v>0.9160325596628809</v>
       </c>
       <c r="C8">
-        <v>0.2284575427020457</v>
+        <v>0.1530714037679708</v>
       </c>
       <c r="D8">
-        <v>0.06036897987345213</v>
+        <v>0.07305006646409851</v>
       </c>
       <c r="E8">
-        <v>0.1390602199416655</v>
+        <v>0.06446446964546837</v>
       </c>
       <c r="F8">
-        <v>1.181691261537352</v>
+        <v>0.6996781309742275</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2512613907876471</v>
+        <v>0.774589679915465</v>
       </c>
       <c r="L8">
-        <v>0.1909592244000109</v>
+        <v>0.1428403082865586</v>
       </c>
       <c r="M8">
-        <v>0.1521807975338625</v>
+        <v>0.1955041106018172</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.306727593939939</v>
+        <v>2.283684095102188</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.603375553896683</v>
+        <v>1.231728438965661</v>
       </c>
       <c r="C9">
-        <v>0.2284999591784</v>
+        <v>0.1525354592538903</v>
       </c>
       <c r="D9">
-        <v>0.06468667661751226</v>
+        <v>0.08451205716646371</v>
       </c>
       <c r="E9">
-        <v>0.1380175735433795</v>
+        <v>0.06687781322430375</v>
       </c>
       <c r="F9">
-        <v>1.182233243122447</v>
+        <v>0.767195055128262</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3288466244276265</v>
+        <v>1.032070851884527</v>
       </c>
       <c r="L9">
-        <v>0.1978151420177596</v>
+        <v>0.1773808086586399</v>
       </c>
       <c r="M9">
-        <v>0.1687546674975096</v>
+        <v>0.2598639876039179</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.27194527623476</v>
+        <v>2.380263255780108</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6683052358698376</v>
+        <v>1.466556559910515</v>
       </c>
       <c r="C10">
-        <v>0.2286077519738399</v>
+        <v>0.1523338098194884</v>
       </c>
       <c r="D10">
-        <v>0.06779093721596752</v>
+        <v>0.09288375774268331</v>
       </c>
       <c r="E10">
-        <v>0.137501650542287</v>
+        <v>0.06912028448038754</v>
       </c>
       <c r="F10">
-        <v>1.185570924565738</v>
+        <v>0.8240156734750883</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3857946177261908</v>
+        <v>1.222467027970765</v>
       </c>
       <c r="L10">
-        <v>0.2032901012923389</v>
+        <v>0.2037674488252179</v>
       </c>
       <c r="M10">
-        <v>0.1812475312340851</v>
+        <v>0.3080228862904164</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.256257972841098</v>
+        <v>2.474544176661595</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6980221968194371</v>
+        <v>1.574247026396222</v>
       </c>
       <c r="C11">
-        <v>0.2286731601045133</v>
+        <v>0.152285281156594</v>
       </c>
       <c r="D11">
-        <v>0.06918827726064336</v>
+        <v>0.09668557710097048</v>
       </c>
       <c r="E11">
-        <v>0.1373210524912452</v>
+        <v>0.07025309055612183</v>
       </c>
       <c r="F11">
-        <v>1.187727542644694</v>
+        <v>0.8516615860540213</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4116876050145777</v>
+        <v>1.309519037042463</v>
       </c>
       <c r="L11">
-        <v>0.2058755181219141</v>
+        <v>0.216033377452888</v>
       </c>
       <c r="M11">
-        <v>0.1869987861070896</v>
+        <v>0.3301763087199419</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.251263587692108</v>
+        <v>2.52317897861667</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7093006842721081</v>
+        <v>1.615171707509859</v>
       </c>
       <c r="C12">
-        <v>0.2287002600376695</v>
+        <v>0.1522732567149987</v>
       </c>
       <c r="D12">
-        <v>0.0697152689615379</v>
+        <v>0.09812463806410676</v>
       </c>
       <c r="E12">
-        <v>0.1372604262445059</v>
+        <v>0.07069921236922738</v>
       </c>
       <c r="F12">
-        <v>1.188635940907702</v>
+        <v>0.862409426043655</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4214904134900905</v>
+        <v>1.342561529010453</v>
       </c>
       <c r="L12">
-        <v>0.206868136836647</v>
+        <v>0.2207196870035233</v>
       </c>
       <c r="M12">
-        <v>0.1891863525037607</v>
+        <v>0.3386054004523942</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.249680246584859</v>
+        <v>2.542482865559634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7068705433752882</v>
+        <v>1.60635107619197</v>
       </c>
       <c r="C13">
-        <v>0.2286943202625267</v>
+        <v>0.1522755614932336</v>
       </c>
       <c r="D13">
-        <v>0.06960186786816536</v>
+        <v>0.0978147319314715</v>
       </c>
       <c r="E13">
-        <v>0.1372731382293608</v>
+        <v>0.070602353419428</v>
       </c>
       <c r="F13">
-        <v>1.188436222033957</v>
+        <v>0.860081940628433</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4193793127943195</v>
+        <v>1.335441534337775</v>
       </c>
       <c r="L13">
-        <v>0.2066537557146972</v>
+        <v>0.2197085000326666</v>
       </c>
       <c r="M13">
-        <v>0.1887147917506127</v>
+        <v>0.3367881833759441</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.250007553553615</v>
+        <v>2.538284968057923</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6989495806644754</v>
+        <v>1.577610905278391</v>
       </c>
       <c r="C14">
-        <v>0.2286753430418926</v>
+        <v>0.1522841637370789</v>
       </c>
       <c r="D14">
-        <v>0.06923167641241434</v>
+        <v>0.09680397966384646</v>
       </c>
       <c r="E14">
-        <v>0.1373159092617193</v>
+        <v>0.07028944384806124</v>
       </c>
       <c r="F14">
-        <v>1.187800438933309</v>
+        <v>0.8525401051483783</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4124941366732457</v>
+        <v>1.312235816612485</v>
       </c>
       <c r="L14">
-        <v>0.2059569096864209</v>
+        <v>0.2164180696296683</v>
       </c>
       <c r="M14">
-        <v>0.187178564944027</v>
+        <v>0.3308689437007075</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.251127154418469</v>
+        <v>2.524748982222462</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6941010423522869</v>
+        <v>1.56002617911787</v>
       </c>
       <c r="C15">
-        <v>0.2286640218686387</v>
+        <v>0.1522902645108104</v>
       </c>
       <c r="D15">
-        <v>0.06900464272985829</v>
+        <v>0.09618479610342234</v>
       </c>
       <c r="E15">
-        <v>0.1373431181355009</v>
+        <v>0.07010004068601106</v>
       </c>
       <c r="F15">
-        <v>1.187422948328503</v>
+        <v>0.8479574681902733</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4082764543383348</v>
+        <v>1.298032224610751</v>
       </c>
       <c r="L15">
-        <v>0.205531837807456</v>
+        <v>0.2144081012784227</v>
       </c>
       <c r="M15">
-        <v>0.1862388403273059</v>
+        <v>0.3272486035088846</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.251853040963965</v>
+        <v>2.516575181469108</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6663667373215105</v>
+        <v>1.45953784627855</v>
       </c>
       <c r="C16">
-        <v>0.2286038048814518</v>
+        <v>0.1523378622599836</v>
       </c>
       <c r="D16">
-        <v>0.06769931799706086</v>
+        <v>0.09263519660040487</v>
       </c>
       <c r="E16">
-        <v>0.1375145401930524</v>
+        <v>0.06904860021209913</v>
       </c>
       <c r="F16">
-        <v>1.1854428241476</v>
+        <v>0.8222468379870804</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3841021518123</v>
+        <v>1.216788043055459</v>
       </c>
       <c r="L16">
-        <v>0.203123041408162</v>
+        <v>0.2029714360625832</v>
       </c>
       <c r="M16">
-        <v>0.1808730355445078</v>
+        <v>0.3065804496151117</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.256627461071218</v>
+        <v>2.471486490727926</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6493983586543948</v>
+        <v>1.398127159339708</v>
       </c>
       <c r="C17">
-        <v>0.2285710406288359</v>
+        <v>0.152378222232457</v>
       </c>
       <c r="D17">
-        <v>0.06689473637107568</v>
+        <v>0.09045619234044011</v>
       </c>
       <c r="E17">
-        <v>0.1376335458175735</v>
+        <v>0.06843309398019848</v>
       </c>
       <c r="F17">
-        <v>1.184391527144953</v>
+        <v>0.8069487593686091</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3692683701772523</v>
+        <v>1.167070025790537</v>
       </c>
       <c r="L17">
-        <v>0.2016695691995096</v>
+        <v>0.1960252142636989</v>
       </c>
       <c r="M17">
-        <v>0.1775986713559163</v>
+        <v>0.293967402784034</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.260104941671926</v>
+        <v>2.445339550561954</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6396555847836964</v>
+        <v>1.36288557736205</v>
       </c>
       <c r="C18">
-        <v>0.2285537379304472</v>
+        <v>0.1524054934587014</v>
       </c>
       <c r="D18">
-        <v>0.06643057021173604</v>
+        <v>0.08920225276942517</v>
       </c>
       <c r="E18">
-        <v>0.1377070876661985</v>
+        <v>0.06808961812301462</v>
       </c>
       <c r="F18">
-        <v>1.183846930933967</v>
+        <v>0.7983176362544384</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3607351796930232</v>
+        <v>1.138514003106707</v>
       </c>
       <c r="L18">
-        <v>0.2008424998464449</v>
+        <v>0.1920544026510527</v>
       </c>
       <c r="M18">
-        <v>0.1757217687344621</v>
+        <v>0.2867355346810641</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.262306701687379</v>
+        <v>2.430837477209792</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6363597845474374</v>
+        <v>1.350966572127845</v>
       </c>
       <c r="C19">
-        <v>0.2285481451565161</v>
+        <v>0.1524154198301915</v>
       </c>
       <c r="D19">
-        <v>0.06627317310227454</v>
+        <v>0.08877757183439883</v>
       </c>
       <c r="E19">
-        <v>0.1377328629085675</v>
+        <v>0.06797510670581808</v>
       </c>
       <c r="F19">
-        <v>1.183672860715404</v>
+        <v>0.7954235294652108</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3578457968743862</v>
+        <v>1.128851949151738</v>
       </c>
       <c r="L19">
-        <v>0.2005640038084664</v>
+        <v>0.1907140479083296</v>
       </c>
       <c r="M19">
-        <v>0.1750873887549318</v>
+        <v>0.2842907292919037</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.263086807829268</v>
+        <v>2.426017767289864</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6512029174816689</v>
+        <v>1.404655988207082</v>
       </c>
       <c r="C20">
-        <v>0.2285743689709037</v>
+        <v>0.1523735049684731</v>
       </c>
       <c r="D20">
-        <v>0.06698052969372981</v>
+        <v>0.09068821436193986</v>
       </c>
       <c r="E20">
-        <v>0.1376203504858644</v>
+        <v>0.0684975174255662</v>
       </c>
       <c r="F20">
-        <v>1.18449722161094</v>
+        <v>0.8085597429271587</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3708475780983633</v>
+        <v>1.172358303684774</v>
       </c>
       <c r="L20">
-        <v>0.2018233700639627</v>
+        <v>0.1967620926093758</v>
       </c>
       <c r="M20">
-        <v>0.1779465688739776</v>
+        <v>0.2953076878144785</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.259713893052719</v>
+        <v>2.448066938251714</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7012754768942671</v>
+        <v>1.586048497036131</v>
       </c>
       <c r="C21">
-        <v>0.2286808540230254</v>
+        <v>0.152281463464135</v>
       </c>
       <c r="D21">
-        <v>0.06934046915841208</v>
+        <v>0.0971008757782954</v>
       </c>
       <c r="E21">
-        <v>0.1373031358403409</v>
+        <v>0.07038087958965988</v>
       </c>
       <c r="F21">
-        <v>1.187984694628099</v>
+        <v>0.8547475852107027</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4145165458491817</v>
+        <v>1.319049666017207</v>
       </c>
       <c r="L21">
-        <v>0.2061612222386486</v>
+        <v>0.217383392410639</v>
       </c>
       <c r="M21">
-        <v>0.1876295298962916</v>
+        <v>0.3326064408630742</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.250789944102905</v>
+        <v>2.528700252709882</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7341480999820362</v>
+        <v>1.705452472011331</v>
       </c>
       <c r="C22">
-        <v>0.2287640262116355</v>
+        <v>0.1522584104573426</v>
       </c>
       <c r="D22">
-        <v>0.07087028030135656</v>
+        <v>0.1012885632981764</v>
       </c>
       <c r="E22">
-        <v>0.1371410546165386</v>
+        <v>0.07171223087802048</v>
       </c>
       <c r="F22">
-        <v>1.190798630028709</v>
+        <v>0.8865703649584162</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4430431074108867</v>
+        <v>1.415381896614065</v>
       </c>
       <c r="L22">
-        <v>0.2090753718650404</v>
+        <v>0.2311042326225277</v>
       </c>
       <c r="M22">
-        <v>0.19401433820601</v>
+        <v>0.3572193508408148</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.246752411474233</v>
+        <v>2.58659993104618</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7165900754359029</v>
+        <v>1.641639191697749</v>
       </c>
       <c r="C23">
-        <v>0.2287184008072245</v>
+        <v>0.1522672695249057</v>
       </c>
       <c r="D23">
-        <v>0.070054946452629</v>
+        <v>0.09905370691614479</v>
       </c>
       <c r="E23">
-        <v>0.137223426817382</v>
+        <v>0.07099214131285692</v>
       </c>
       <c r="F23">
-        <v>1.189247874675303</v>
+        <v>0.8694291024701783</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4278193381064455</v>
+        <v>1.363920300979657</v>
       </c>
       <c r="L23">
-        <v>0.207512816085611</v>
+        <v>0.2237575716511913</v>
       </c>
       <c r="M23">
-        <v>0.1906015199495528</v>
+        <v>0.3440597246268808</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.248743119533856</v>
+        <v>2.555200671564251</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6503870372293932</v>
+        <v>1.401704106085703</v>
       </c>
       <c r="C24">
-        <v>0.2285728594479224</v>
+        <v>0.1523756249838115</v>
       </c>
       <c r="D24">
-        <v>0.06694174751909543</v>
+        <v>0.09058332097151123</v>
       </c>
       <c r="E24">
-        <v>0.137626300133693</v>
+        <v>0.06846835930399742</v>
       </c>
       <c r="F24">
-        <v>1.184449250838497</v>
+        <v>0.8078309081299864</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3701336339010481</v>
+        <v>1.169967388592056</v>
       </c>
       <c r="L24">
-        <v>0.201753810053134</v>
+        <v>0.1964288795946203</v>
       </c>
       <c r="M24">
-        <v>0.1777892670387047</v>
+        <v>0.2947016844421171</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.259890055314429</v>
+        <v>2.446832239512929</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5796279470783077</v>
+        <v>1.145892154482397</v>
       </c>
       <c r="C25">
-        <v>0.2284749341384327</v>
+        <v>0.152647172010532</v>
       </c>
       <c r="D25">
-        <v>0.06353051403530685</v>
+        <v>0.08142124469960521</v>
       </c>
       <c r="E25">
-        <v>0.1382556448363506</v>
+        <v>0.0661459562477944</v>
       </c>
       <c r="F25">
-        <v>1.181570350968265</v>
+        <v>0.7477364229514407</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3078662799450171</v>
+        <v>0.9622543479052581</v>
       </c>
       <c r="L25">
-        <v>0.1958833880416435</v>
+        <v>0.1678730370725603</v>
       </c>
       <c r="M25">
-        <v>0.1642152292170067</v>
+        <v>0.2423170552259961</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.279621775039516</v>
+        <v>2.350257665646552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.959397354059746</v>
+        <v>1.060332559479065</v>
       </c>
       <c r="C2">
-        <v>0.1529756184475275</v>
+        <v>0.1025170960106223</v>
       </c>
       <c r="D2">
-        <v>0.07464083145447376</v>
+        <v>0.09016568724235441</v>
       </c>
       <c r="E2">
-        <v>0.06474729615722552</v>
+        <v>0.05641752736532091</v>
       </c>
       <c r="F2">
-        <v>0.7082505275433491</v>
+        <v>0.8205382362063034</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.008417354147395723</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.009314055714373826</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.8100812462579086</v>
+        <v>0.4859454678895183</v>
       </c>
       <c r="L2">
-        <v>0.1475104692788634</v>
+        <v>0.0624021177164984</v>
       </c>
       <c r="M2">
-        <v>0.2043142280305297</v>
+        <v>0.9250104583313146</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2162453496350878</v>
       </c>
       <c r="O2">
-        <v>2.29456163542585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.023187513507318</v>
+      </c>
+      <c r="Q2">
+        <v>2.081617615110702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8338416326192828</v>
+        <v>0.9265477585331325</v>
       </c>
       <c r="C3">
-        <v>0.1532764535671554</v>
+        <v>0.09361350275459301</v>
       </c>
       <c r="D3">
-        <v>0.07001858818389906</v>
+        <v>0.08079538098591144</v>
       </c>
       <c r="E3">
-        <v>0.06397862227585271</v>
+        <v>0.05257847590707243</v>
       </c>
       <c r="F3">
-        <v>0.6841410855648817</v>
+        <v>0.797339571384498</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.01075258354681542</v>
+      </c>
+      <c r="I3">
+        <v>0.01156490112561892</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0.7071937353267117</v>
+        <v>0.4834683794493522</v>
       </c>
       <c r="L3">
-        <v>0.1340645893662185</v>
+        <v>0.05957622646344873</v>
       </c>
       <c r="M3">
-        <v>0.1788369955908493</v>
+        <v>0.8054673422331291</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1931494532691431</v>
       </c>
       <c r="O3">
-        <v>2.265487633185643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.053585327608762</v>
+      </c>
+      <c r="Q3">
+        <v>2.046822356869228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7570629683832806</v>
+        <v>0.8440847246453131</v>
       </c>
       <c r="C4">
-        <v>0.1534992198125877</v>
+        <v>0.08819115805141564</v>
       </c>
       <c r="D4">
-        <v>0.06716549887571688</v>
+        <v>0.07506532969845381</v>
       </c>
       <c r="E4">
-        <v>0.06359043961681721</v>
+        <v>0.05020666288758058</v>
       </c>
       <c r="F4">
-        <v>0.6705471895346804</v>
+        <v>0.7835684505408977</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.01239105914083304</v>
+      </c>
+      <c r="I4">
+        <v>0.01316410652286226</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0.6440689334350367</v>
+        <v>0.4821655579073933</v>
       </c>
       <c r="L4">
-        <v>0.1259652532659032</v>
+        <v>0.05780198290395866</v>
       </c>
       <c r="M4">
-        <v>0.1633076796639479</v>
+        <v>0.7319955197127399</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.179028332063119</v>
       </c>
       <c r="O4">
-        <v>2.251624753369356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.072850628007023</v>
+      </c>
+      <c r="Q4">
+        <v>2.026816737614368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7258405606140457</v>
+        <v>0.8097187987050063</v>
       </c>
       <c r="C5">
-        <v>0.1535994972680967</v>
+        <v>0.08615216748605548</v>
       </c>
       <c r="D5">
-        <v>0.06599885766073754</v>
+        <v>0.07276273997855753</v>
       </c>
       <c r="E5">
-        <v>0.06345267554394418</v>
+        <v>0.04921571026309479</v>
       </c>
       <c r="F5">
-        <v>0.6652979941694639</v>
+        <v>0.7776103266061583</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.01311307583235827</v>
+      </c>
+      <c r="I5">
+        <v>0.01395565880445604</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0.6183478371182076</v>
+        <v>0.481342593766275</v>
       </c>
       <c r="L5">
-        <v>0.1227015665335713</v>
+        <v>0.05703363793653615</v>
       </c>
       <c r="M5">
-        <v>0.1570048388418037</v>
+        <v>0.7019694781066335</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1734161747839948</v>
       </c>
       <c r="O5">
-        <v>2.246938054637667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.080771930690362</v>
+      </c>
+      <c r="Q5">
+        <v>2.017691358862166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7206596889381558</v>
+        <v>0.8031754032454614</v>
       </c>
       <c r="C6">
-        <v>0.1536167200487064</v>
+        <v>0.08601229173491731</v>
       </c>
       <c r="D6">
-        <v>0.06580489131319212</v>
+        <v>0.0724138131393488</v>
       </c>
       <c r="E6">
-        <v>0.06343101514630867</v>
+        <v>0.04902577931508745</v>
       </c>
       <c r="F6">
-        <v>0.6644435226409087</v>
+        <v>0.7760637347483552</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.0132414492504441</v>
+      </c>
+      <c r="I6">
+        <v>0.01420371984668201</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0.6140767707723853</v>
+        <v>0.4807869185806588</v>
       </c>
       <c r="L6">
-        <v>0.1221617895009572</v>
+        <v>0.05686237061081556</v>
       </c>
       <c r="M6">
-        <v>0.1559597074234453</v>
+        <v>0.6969045568645527</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1726428455491558</v>
       </c>
       <c r="O6">
-        <v>2.246216821332155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.082002869558163</v>
+      </c>
+      <c r="Q6">
+        <v>2.014601873333106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7566416436999361</v>
+        <v>0.8413418512267583</v>
       </c>
       <c r="C7">
-        <v>0.1535005338168887</v>
+        <v>0.08870605943186405</v>
       </c>
       <c r="D7">
-        <v>0.06714978154202811</v>
+        <v>0.07512479732026378</v>
       </c>
       <c r="E7">
-        <v>0.06358849981927328</v>
+        <v>0.05012467572101897</v>
       </c>
       <c r="F7">
-        <v>0.6704752387278177</v>
+        <v>0.7819483370471971</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.01241486510796289</v>
+      </c>
+      <c r="I7">
+        <v>0.01346777075289385</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0.6437220505845858</v>
+        <v>0.4810026830830729</v>
       </c>
       <c r="L7">
-        <v>0.1259210920099605</v>
+        <v>0.05767419107840333</v>
       </c>
       <c r="M7">
-        <v>0.1632225781997612</v>
+        <v>0.7313772056636196</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1793843564924913</v>
       </c>
       <c r="O7">
-        <v>2.251557701647044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.072715293783568</v>
+      </c>
+      <c r="Q7">
+        <v>2.022344194763463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9160325596628809</v>
+        <v>1.011222250457337</v>
       </c>
       <c r="C8">
-        <v>0.1530714037679708</v>
+        <v>0.1001627625185293</v>
       </c>
       <c r="D8">
-        <v>0.07305006646409851</v>
+        <v>0.08705013607053758</v>
       </c>
       <c r="E8">
-        <v>0.06446446964546837</v>
+        <v>0.05500608131948503</v>
       </c>
       <c r="F8">
-        <v>0.6996781309742275</v>
+        <v>0.8104086033921405</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.009194374310844827</v>
+      </c>
+      <c r="I8">
+        <v>0.01039656414378687</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0.774589679915465</v>
+        <v>0.4835305522853162</v>
       </c>
       <c r="L8">
-        <v>0.1428403082865586</v>
+        <v>0.0612811616675657</v>
       </c>
       <c r="M8">
-        <v>0.1955041106018172</v>
+        <v>0.8835157546998289</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.208843911412842</v>
       </c>
       <c r="O8">
-        <v>2.283684095102188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.033281273978129</v>
+      </c>
+      <c r="Q8">
+        <v>2.063604090682901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.231728438965661</v>
+        <v>1.346059352602936</v>
       </c>
       <c r="C9">
-        <v>0.1525354592538903</v>
+        <v>0.1220825420146454</v>
       </c>
       <c r="D9">
-        <v>0.08451205716646371</v>
+        <v>0.1104799341774623</v>
       </c>
       <c r="E9">
-        <v>0.06687781322430375</v>
+        <v>0.06459430249684672</v>
       </c>
       <c r="F9">
-        <v>0.767195055128262</v>
+        <v>0.8729055444211298</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.004560900705139481</v>
+      </c>
+      <c r="I9">
+        <v>0.00572716373956883</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1.032070851884527</v>
+        <v>0.4923289803709139</v>
       </c>
       <c r="L9">
-        <v>0.1773808086586399</v>
+        <v>0.06826376585283356</v>
       </c>
       <c r="M9">
-        <v>0.2598639876039179</v>
+        <v>1.181896401516155</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2663826761781394</v>
       </c>
       <c r="O9">
-        <v>2.380263255780108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9611903147149619</v>
+      </c>
+      <c r="Q9">
+        <v>2.16355685232972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.466556559910515</v>
+        <v>1.581600939567778</v>
       </c>
       <c r="C10">
-        <v>0.1523338098194884</v>
+        <v>0.1396768212816113</v>
       </c>
       <c r="D10">
-        <v>0.09288375774268331</v>
+        <v>0.1259268034045391</v>
       </c>
       <c r="E10">
-        <v>0.06912028448038754</v>
+        <v>0.06932992795039894</v>
       </c>
       <c r="F10">
-        <v>0.8240156734750883</v>
+        <v>0.9113713696990189</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.002600188354037858</v>
+      </c>
+      <c r="I10">
+        <v>0.003688176733246173</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>1.222467027970765</v>
+        <v>0.4949555957405174</v>
       </c>
       <c r="L10">
-        <v>0.2037674488252179</v>
+        <v>0.07108188164705354</v>
       </c>
       <c r="M10">
-        <v>0.3080228862904164</v>
+        <v>1.397413282779553</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2998334531877873</v>
       </c>
       <c r="O10">
-        <v>2.474544176661595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.9112326863462901</v>
+      </c>
+      <c r="Q10">
+        <v>2.221845060944929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.574247026396222</v>
+        <v>1.614606622523894</v>
       </c>
       <c r="C11">
-        <v>0.152285281156594</v>
+        <v>0.1563727206522856</v>
       </c>
       <c r="D11">
-        <v>0.09668557710097048</v>
+        <v>0.1162961950033434</v>
       </c>
       <c r="E11">
-        <v>0.07025309055612183</v>
+        <v>0.05412960214484386</v>
       </c>
       <c r="F11">
-        <v>0.8516615860540213</v>
+        <v>0.8470269577670706</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02114610952362739</v>
+      </c>
+      <c r="I11">
+        <v>0.003778863752936346</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>1.309519037042463</v>
+        <v>0.4570025717470507</v>
       </c>
       <c r="L11">
-        <v>0.216033377452888</v>
+        <v>0.05880908609724678</v>
       </c>
       <c r="M11">
-        <v>0.3301763087199419</v>
+        <v>1.462459634886358</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2383697392473749</v>
       </c>
       <c r="O11">
-        <v>2.52317897861667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8920034508912718</v>
+      </c>
+      <c r="Q11">
+        <v>2.06695956029759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.615171707509859</v>
+        <v>1.595401391266336</v>
       </c>
       <c r="C12">
-        <v>0.1522732567149987</v>
+        <v>0.1663929744324264</v>
       </c>
       <c r="D12">
-        <v>0.09812463806410676</v>
+        <v>0.1051156304713317</v>
       </c>
       <c r="E12">
-        <v>0.07069921236922738</v>
+        <v>0.04314924190515868</v>
       </c>
       <c r="F12">
-        <v>0.862409426043655</v>
+        <v>0.7881940733043464</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05997263187929747</v>
+      </c>
+      <c r="I12">
+        <v>0.003724073506233161</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>1.342561529010453</v>
+        <v>0.4272860825994442</v>
       </c>
       <c r="L12">
-        <v>0.2207196870035233</v>
+        <v>0.05437098884458691</v>
       </c>
       <c r="M12">
-        <v>0.3386054004523942</v>
+        <v>1.471430370245145</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1853673470528037</v>
       </c>
       <c r="O12">
-        <v>2.542482865559634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.890812807536669</v>
+      </c>
+      <c r="Q12">
+        <v>1.933137360986848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.60635107619197</v>
+        <v>1.531407941120733</v>
       </c>
       <c r="C13">
-        <v>0.1522755614932336</v>
+        <v>0.1726088528176604</v>
       </c>
       <c r="D13">
-        <v>0.0978147319314715</v>
+        <v>0.09230476033478396</v>
       </c>
       <c r="E13">
-        <v>0.070602353419428</v>
+        <v>0.03468724084265418</v>
       </c>
       <c r="F13">
-        <v>0.860081940628433</v>
+        <v>0.7277781585968484</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1160550683801063</v>
+      </c>
+      <c r="I13">
+        <v>0.003948599325242164</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>1.335441534337775</v>
+        <v>0.4003347572378999</v>
       </c>
       <c r="L13">
-        <v>0.2197085000326666</v>
+        <v>0.05539935622027237</v>
       </c>
       <c r="M13">
-        <v>0.3367881833759441</v>
+        <v>1.437298206783311</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1367446670484682</v>
       </c>
       <c r="O13">
-        <v>2.538284968057923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9023964613244573</v>
+      </c>
+      <c r="Q13">
+        <v>1.800723550869492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.577610905278391</v>
+        <v>1.465937976638969</v>
       </c>
       <c r="C14">
-        <v>0.1522841637370789</v>
+        <v>0.1754609190869303</v>
       </c>
       <c r="D14">
-        <v>0.09680397966384646</v>
+        <v>0.0827591587652492</v>
       </c>
       <c r="E14">
-        <v>0.07028944384806124</v>
+        <v>0.03029719467492686</v>
       </c>
       <c r="F14">
-        <v>0.8525401051483783</v>
+        <v>0.6849162876126016</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1657144947656235</v>
+      </c>
+      <c r="I14">
+        <v>0.004338150130746676</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>1.312235816612485</v>
+        <v>0.3827330136248968</v>
       </c>
       <c r="L14">
-        <v>0.2164180696296683</v>
+        <v>0.0593773895287093</v>
       </c>
       <c r="M14">
-        <v>0.3308689437007075</v>
+        <v>1.393926572656255</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1059639799096743</v>
       </c>
       <c r="O14">
-        <v>2.524748982222462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9166573788619132</v>
+      </c>
+      <c r="Q14">
+        <v>1.70869469570836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.56002617911787</v>
+        <v>1.439801282545204</v>
       </c>
       <c r="C15">
-        <v>0.1522902645108104</v>
+        <v>0.1755407198143075</v>
       </c>
       <c r="D15">
-        <v>0.09618479610342234</v>
+        <v>0.08009144345830066</v>
       </c>
       <c r="E15">
-        <v>0.07010004068601106</v>
+        <v>0.02940770221807121</v>
       </c>
       <c r="F15">
-        <v>0.8479574681902733</v>
+        <v>0.67357696886355</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1783750347619844</v>
+      </c>
+      <c r="I15">
+        <v>0.004632774460612055</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>1.298032224610751</v>
+        <v>0.378589969752543</v>
       </c>
       <c r="L15">
-        <v>0.2144081012784227</v>
+        <v>0.06068526581183775</v>
       </c>
       <c r="M15">
-        <v>0.3272486035088846</v>
+        <v>1.374232494138113</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.098700953351198</v>
       </c>
       <c r="O15">
-        <v>2.516575181469108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9223630088418986</v>
+      </c>
+      <c r="Q15">
+        <v>1.685044243530612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.45953784627855</v>
+        <v>1.351604810523696</v>
       </c>
       <c r="C16">
-        <v>0.1523378622599836</v>
+        <v>0.1667651982911451</v>
       </c>
       <c r="D16">
-        <v>0.09263519660040487</v>
+        <v>0.0764241364523599</v>
       </c>
       <c r="E16">
-        <v>0.06904860021209913</v>
+        <v>0.02927145287647637</v>
       </c>
       <c r="F16">
-        <v>0.8222468379870804</v>
+        <v>0.6688895466691207</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1664687250833055</v>
+      </c>
+      <c r="I16">
+        <v>0.005576658015938207</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>1.216788043055459</v>
+        <v>0.3823058433628788</v>
       </c>
       <c r="L16">
-        <v>0.2029714360625832</v>
+        <v>0.05912835335275979</v>
       </c>
       <c r="M16">
-        <v>0.3065804496151117</v>
+        <v>1.288796231262353</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09571471974835077</v>
       </c>
       <c r="O16">
-        <v>2.471486490727926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.939088356328277</v>
+      </c>
+      <c r="Q16">
+        <v>1.684597579347539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.398127159339708</v>
+        <v>1.3185427039312</v>
       </c>
       <c r="C17">
-        <v>0.152378222232457</v>
+        <v>0.1585567137509969</v>
       </c>
       <c r="D17">
-        <v>0.09045619234044011</v>
+        <v>0.07859847289406474</v>
       </c>
       <c r="E17">
-        <v>0.06843309398019848</v>
+        <v>0.031213121519853</v>
       </c>
       <c r="F17">
-        <v>0.8069487593686091</v>
+        <v>0.6878476667426838</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1291780384448913</v>
+      </c>
+      <c r="I17">
+        <v>0.00613206650724063</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1.167070025790537</v>
+        <v>0.3943782998689791</v>
       </c>
       <c r="L17">
-        <v>0.1960252142636989</v>
+        <v>0.05527319346258963</v>
       </c>
       <c r="M17">
-        <v>0.293967402784034</v>
+        <v>1.246375011554875</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1089808423696326</v>
       </c>
       <c r="O17">
-        <v>2.445339550561954</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9444618306433945</v>
+      </c>
+      <c r="Q17">
+        <v>1.732808479989416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.36288557736205</v>
+        <v>1.330738858769791</v>
       </c>
       <c r="C18">
-        <v>0.1524054934587014</v>
+        <v>0.1495360635360186</v>
       </c>
       <c r="D18">
-        <v>0.08920225276942517</v>
+        <v>0.08621906281832281</v>
       </c>
       <c r="E18">
-        <v>0.06808961812301462</v>
+        <v>0.03656850208254525</v>
       </c>
       <c r="F18">
-        <v>0.7983176362544384</v>
+        <v>0.731213278640837</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07644999101662364</v>
+      </c>
+      <c r="I18">
+        <v>0.006029097806113271</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>1.138514003106707</v>
+        <v>0.4164140868070341</v>
       </c>
       <c r="L18">
-        <v>0.1920544026510527</v>
+        <v>0.05205431841300268</v>
       </c>
       <c r="M18">
-        <v>0.2867355346810641</v>
+        <v>1.235955615991941</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1409873782923228</v>
       </c>
       <c r="O18">
-        <v>2.430837477209792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9423785271113836</v>
+      </c>
+      <c r="Q18">
+        <v>1.833093434226441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.350966572127845</v>
+        <v>1.374164341173611</v>
       </c>
       <c r="C19">
-        <v>0.1524154198301915</v>
+        <v>0.1420974583934509</v>
       </c>
       <c r="D19">
-        <v>0.08877757183439883</v>
+        <v>0.09824909881884736</v>
       </c>
       <c r="E19">
-        <v>0.06797510670581808</v>
+        <v>0.04630301544534632</v>
       </c>
       <c r="F19">
-        <v>0.7954235294652108</v>
+        <v>0.7903218426767893</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03081432541539186</v>
+      </c>
+      <c r="I19">
+        <v>0.005964817700411906</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>1.128851949151738</v>
+        <v>0.4443019767064982</v>
       </c>
       <c r="L19">
-        <v>0.1907140479083296</v>
+        <v>0.05411455394477294</v>
       </c>
       <c r="M19">
-        <v>0.2842907292919037</v>
+        <v>1.251385103588404</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1917428276936946</v>
       </c>
       <c r="O19">
-        <v>2.426017767289864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9378813381383893</v>
+      </c>
+      <c r="Q19">
+        <v>1.964723018131934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.404655988207082</v>
+        <v>1.512211992040562</v>
       </c>
       <c r="C20">
-        <v>0.1523735049684731</v>
+        <v>0.1368370394000067</v>
       </c>
       <c r="D20">
-        <v>0.09068821436193986</v>
+        <v>0.1220651105304853</v>
       </c>
       <c r="E20">
-        <v>0.0684975174255662</v>
+        <v>0.06778632833492892</v>
       </c>
       <c r="F20">
-        <v>0.8085597429271587</v>
+        <v>0.8959637082037162</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.003044378053586705</v>
+      </c>
+      <c r="I20">
+        <v>0.005009272817709132</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>1.172358303684774</v>
+        <v>0.4904995015622724</v>
       </c>
       <c r="L20">
-        <v>0.1967620926093758</v>
+        <v>0.06991201349422838</v>
       </c>
       <c r="M20">
-        <v>0.2953076878144785</v>
+        <v>1.33994683099931</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2919907714211121</v>
       </c>
       <c r="O20">
-        <v>2.448066938251714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.9238176467861745</v>
+      </c>
+      <c r="Q20">
+        <v>2.19183592396169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.586048497036131</v>
+        <v>1.706441138011883</v>
       </c>
       <c r="C21">
-        <v>0.152281463464135</v>
+        <v>0.1488536159676954</v>
       </c>
       <c r="D21">
-        <v>0.0971008757782954</v>
+        <v>0.1369648649894231</v>
       </c>
       <c r="E21">
-        <v>0.07038087958965988</v>
+        <v>0.07489062783148981</v>
       </c>
       <c r="F21">
-        <v>0.8547475852107027</v>
+        <v>0.9419421970741411</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.001490815523156885</v>
+      </c>
+      <c r="I21">
+        <v>0.003593528533184731</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>1.319049666017207</v>
+        <v>0.5005984137722663</v>
       </c>
       <c r="L21">
-        <v>0.217383392410639</v>
+        <v>0.07533008356941551</v>
       </c>
       <c r="M21">
-        <v>0.3326064408630742</v>
+        <v>1.511308096667278</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3322136297135501</v>
       </c>
       <c r="O21">
-        <v>2.528700252709882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8869358940597225</v>
+      </c>
+      <c r="Q21">
+        <v>2.274112849247899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.705452472011331</v>
+        <v>1.832208014143163</v>
       </c>
       <c r="C22">
-        <v>0.1522584104573426</v>
+        <v>0.1565002048993023</v>
       </c>
       <c r="D22">
-        <v>0.1012885632981764</v>
+        <v>0.1456195878123765</v>
       </c>
       <c r="E22">
-        <v>0.07171223087802048</v>
+        <v>0.07848661533486379</v>
       </c>
       <c r="F22">
-        <v>0.8865703649584162</v>
+        <v>0.9697709783067836</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.0008534406026510233</v>
+      </c>
+      <c r="I22">
+        <v>0.00260596873060237</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>1.415381896614065</v>
+        <v>0.506628823028656</v>
       </c>
       <c r="L22">
-        <v>0.2311042326225277</v>
+        <v>0.07793481570471883</v>
       </c>
       <c r="M22">
-        <v>0.3572193508408148</v>
+        <v>1.621857209821002</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.353206268745808</v>
       </c>
       <c r="O22">
-        <v>2.58659993104618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8634875933130282</v>
+      </c>
+      <c r="Q22">
+        <v>2.324537963615512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.641639191697749</v>
+        <v>1.767880882985111</v>
       </c>
       <c r="C23">
-        <v>0.1522672695249057</v>
+        <v>0.1517340117425903</v>
       </c>
       <c r="D23">
-        <v>0.09905370691614479</v>
+        <v>0.1408877027580786</v>
       </c>
       <c r="E23">
-        <v>0.07099214131285692</v>
+        <v>0.07664821485401774</v>
       </c>
       <c r="F23">
-        <v>0.8694291024701783</v>
+        <v>0.9566524975287933</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.001166241682458713</v>
+      </c>
+      <c r="I23">
+        <v>0.002782447538425714</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>1.363920300979657</v>
+        <v>0.5047080829404109</v>
       </c>
       <c r="L23">
-        <v>0.2237575716511913</v>
+        <v>0.07668218806523797</v>
       </c>
       <c r="M23">
-        <v>0.3440597246268808</v>
+        <v>1.563115275098681</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.341467178198954</v>
       </c>
       <c r="O23">
-        <v>2.555200671564251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8760238641473439</v>
+      </c>
+      <c r="Q23">
+        <v>2.302494545442727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.401704106085703</v>
+        <v>1.519593832178657</v>
       </c>
       <c r="C24">
-        <v>0.1523756249838115</v>
+        <v>0.1349522440990114</v>
       </c>
       <c r="D24">
-        <v>0.09058332097151123</v>
+        <v>0.1232158547638562</v>
       </c>
       <c r="E24">
-        <v>0.06846835930399742</v>
+        <v>0.06955233772846725</v>
       </c>
       <c r="F24">
-        <v>0.8078309081299864</v>
+        <v>0.9053873132589203</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.002848940255884891</v>
+      </c>
+      <c r="I24">
+        <v>0.004461446939366454</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1.169967388592056</v>
+        <v>0.4959022045694823</v>
       </c>
       <c r="L24">
-        <v>0.1964288795946203</v>
+        <v>0.07167967209709758</v>
       </c>
       <c r="M24">
-        <v>0.2947016844421171</v>
+        <v>1.34049023277359</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2980527469234744</v>
       </c>
       <c r="O24">
-        <v>2.446832239512929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9247093124543051</v>
+      </c>
+      <c r="Q24">
+        <v>2.214604389636776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.145892154482397</v>
+        <v>1.251512280544148</v>
       </c>
       <c r="C25">
-        <v>0.152647172010532</v>
+        <v>0.1171043421334232</v>
       </c>
       <c r="D25">
-        <v>0.08142124469960521</v>
+        <v>0.1042816766341303</v>
       </c>
       <c r="E25">
-        <v>0.0661459562477944</v>
+        <v>0.06188681860763801</v>
       </c>
       <c r="F25">
-        <v>0.7477364229514407</v>
+        <v>0.8527870711132408</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.005636057682619877</v>
+      </c>
+      <c r="I25">
+        <v>0.007274321038115872</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0.9622543479052581</v>
+        <v>0.4876961760376943</v>
       </c>
       <c r="L25">
-        <v>0.1678730370725603</v>
+        <v>0.06619570220887994</v>
       </c>
       <c r="M25">
-        <v>0.2423170552259961</v>
+        <v>1.100775930327359</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2515410064534649</v>
       </c>
       <c r="O25">
-        <v>2.350257665646552</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9798921964646103</v>
+      </c>
+      <c r="Q25">
+        <v>2.127454977352414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.060332559479065</v>
+        <v>1.009901337756162</v>
       </c>
       <c r="C2">
-        <v>0.1025170960106223</v>
+        <v>0.1031420524654862</v>
       </c>
       <c r="D2">
-        <v>0.09016568724235441</v>
+        <v>0.09329701959617864</v>
       </c>
       <c r="E2">
-        <v>0.05641752736532091</v>
+        <v>0.05507177729998247</v>
       </c>
       <c r="F2">
-        <v>0.8205382362063034</v>
+        <v>0.7673822584400369</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.008417354147395723</v>
+        <v>0.006871769805444627</v>
       </c>
       <c r="I2">
-        <v>0.009314055714373826</v>
+        <v>0.006901795776743214</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.4859454678895183</v>
+        <v>0.4365983962015534</v>
       </c>
       <c r="L2">
-        <v>0.0624021177164984</v>
+        <v>0.1932443699233417</v>
       </c>
       <c r="M2">
-        <v>0.9250104583313146</v>
+        <v>0.1370104276394741</v>
       </c>
       <c r="N2">
-        <v>0.2162453496350878</v>
+        <v>0.05879258878784377</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9240116999567363</v>
       </c>
       <c r="P2">
-        <v>1.023187513507318</v>
+        <v>0.2319219810390081</v>
       </c>
       <c r="Q2">
-        <v>2.081617615110702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9819716624688954</v>
+      </c>
+      <c r="S2">
+        <v>1.92117247795035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9265477585331325</v>
+        <v>0.8848008386349022</v>
       </c>
       <c r="C3">
-        <v>0.09361350275459301</v>
+        <v>0.09148074517622717</v>
       </c>
       <c r="D3">
-        <v>0.08079538098591144</v>
+        <v>0.08358515684555812</v>
       </c>
       <c r="E3">
-        <v>0.05257847590707243</v>
+        <v>0.05149870657484534</v>
       </c>
       <c r="F3">
-        <v>0.797339571384498</v>
+        <v>0.7486050063294982</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01075258354681542</v>
+        <v>0.008873598266698479</v>
       </c>
       <c r="I3">
-        <v>0.01156490112561892</v>
+        <v>0.008628340404508439</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.4834683794493522</v>
+        <v>0.4367316632000886</v>
       </c>
       <c r="L3">
-        <v>0.05957622646344873</v>
+        <v>0.197207538698045</v>
       </c>
       <c r="M3">
-        <v>0.8054673422331291</v>
+        <v>0.1347654031264582</v>
       </c>
       <c r="N3">
-        <v>0.1931494532691431</v>
+        <v>0.05636623410187624</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8050545406059939</v>
       </c>
       <c r="P3">
-        <v>1.053585327608762</v>
+        <v>0.2072634420448054</v>
       </c>
       <c r="Q3">
-        <v>2.046822356869228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.009861393990581</v>
+      </c>
+      <c r="S3">
+        <v>1.897928459454349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8440847246453131</v>
+        <v>0.8074941888799003</v>
       </c>
       <c r="C4">
-        <v>0.08819115805141564</v>
+        <v>0.08443175536717007</v>
       </c>
       <c r="D4">
-        <v>0.07506532969845381</v>
+        <v>0.07765128940009447</v>
       </c>
       <c r="E4">
-        <v>0.05020666288758058</v>
+        <v>0.04928725508911924</v>
       </c>
       <c r="F4">
-        <v>0.7835684505408977</v>
+        <v>0.7374484126807275</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01239105914083304</v>
+        <v>0.01028425559506877</v>
       </c>
       <c r="I4">
-        <v>0.01316410652286226</v>
+        <v>0.009875431044207961</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.4821655579073933</v>
+        <v>0.4369580338726955</v>
       </c>
       <c r="L4">
-        <v>0.05780198290395866</v>
+        <v>0.1996846156187075</v>
       </c>
       <c r="M4">
-        <v>0.7319955197127399</v>
+        <v>0.1339604326277701</v>
       </c>
       <c r="N4">
-        <v>0.179028332063119</v>
+        <v>0.05483498385384777</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.731898016362436</v>
       </c>
       <c r="P4">
-        <v>1.072850628007023</v>
+        <v>0.1922166426360761</v>
       </c>
       <c r="Q4">
-        <v>2.026816737614368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.027620787693529</v>
+      </c>
+      <c r="S4">
+        <v>1.884728954024894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8097187987050063</v>
+        <v>0.7751983930258461</v>
       </c>
       <c r="C5">
-        <v>0.08615216748605548</v>
+        <v>0.08176824286304196</v>
       </c>
       <c r="D5">
-        <v>0.07276273997855753</v>
+        <v>0.07526749815139766</v>
       </c>
       <c r="E5">
-        <v>0.04921571026309479</v>
+        <v>0.04836124833607336</v>
       </c>
       <c r="F5">
-        <v>0.7776103266061583</v>
+        <v>0.732545344984203</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01311307583235827</v>
+        <v>0.01090735234087034</v>
       </c>
       <c r="I5">
-        <v>0.01395565880445604</v>
+        <v>0.01052777542256678</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.481342593766275</v>
+        <v>0.4367615155562206</v>
       </c>
       <c r="L5">
-        <v>0.05703363793653615</v>
+        <v>0.2005444900775615</v>
       </c>
       <c r="M5">
-        <v>0.7019694781066335</v>
+        <v>0.1336931123875225</v>
       </c>
       <c r="N5">
-        <v>0.1734161747839948</v>
+        <v>0.05416706917931791</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7019897801230286</v>
       </c>
       <c r="P5">
-        <v>1.080771930690362</v>
+        <v>0.1862387318518586</v>
       </c>
       <c r="Q5">
-        <v>2.017691358862166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.034971604727575</v>
+      </c>
+      <c r="S5">
+        <v>1.87835819799588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8031754032454614</v>
+        <v>0.7690111342029979</v>
       </c>
       <c r="C6">
-        <v>0.08601229173491731</v>
+        <v>0.08155275403825613</v>
       </c>
       <c r="D6">
-        <v>0.0724138131393488</v>
+        <v>0.07490560071027375</v>
       </c>
       <c r="E6">
-        <v>0.04902577931508745</v>
+        <v>0.04818243962065161</v>
       </c>
       <c r="F6">
-        <v>0.7760637347483552</v>
+        <v>0.7311901494482456</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0132414492504441</v>
+        <v>0.01101840852043703</v>
       </c>
       <c r="I6">
-        <v>0.01420371984668201</v>
+        <v>0.0107680260211751</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.4807869185806588</v>
+        <v>0.4363352896799171</v>
       </c>
       <c r="L6">
-        <v>0.05686237061081556</v>
+        <v>0.2004925280889331</v>
       </c>
       <c r="M6">
-        <v>0.6969045568645527</v>
+        <v>0.1335554291341783</v>
       </c>
       <c r="N6">
-        <v>0.1726428455491558</v>
+        <v>0.05401487710811992</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6969435766028482</v>
       </c>
       <c r="P6">
-        <v>1.082002869558163</v>
+        <v>0.185408837982358</v>
       </c>
       <c r="Q6">
-        <v>2.014601873333106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.03615104937491</v>
+      </c>
+      <c r="S6">
+        <v>1.87578573698039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8413418512267583</v>
+        <v>0.8048225279361247</v>
       </c>
       <c r="C7">
-        <v>0.08870605943186405</v>
+        <v>0.08501515689957273</v>
       </c>
       <c r="D7">
-        <v>0.07512479732026378</v>
+        <v>0.07771083943371337</v>
       </c>
       <c r="E7">
-        <v>0.05012467572101897</v>
+        <v>0.04920724934050469</v>
       </c>
       <c r="F7">
-        <v>0.7819483370471971</v>
+        <v>0.7358931611776995</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01241486510796289</v>
+        <v>0.01030528180427231</v>
       </c>
       <c r="I7">
-        <v>0.01346777075289385</v>
+        <v>0.01021781923342324</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.4810026830830729</v>
+        <v>0.4358792626309729</v>
       </c>
       <c r="L7">
-        <v>0.05767419107840333</v>
+        <v>0.1991778884224793</v>
       </c>
       <c r="M7">
-        <v>0.7313772056636196</v>
+        <v>0.1336658260605272</v>
       </c>
       <c r="N7">
-        <v>0.1793843564924913</v>
+        <v>0.05471551020379017</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7312808046141299</v>
       </c>
       <c r="P7">
-        <v>1.072715293783568</v>
+        <v>0.192578056439082</v>
       </c>
       <c r="Q7">
-        <v>2.022344194763463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.027599307658884</v>
+      </c>
+      <c r="S7">
+        <v>1.880476092800876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.011222250457337</v>
+        <v>0.963888805481929</v>
       </c>
       <c r="C8">
-        <v>0.1001627625185293</v>
+        <v>0.09993665805676244</v>
       </c>
       <c r="D8">
-        <v>0.08705013607053758</v>
+        <v>0.09006420196440956</v>
       </c>
       <c r="E8">
-        <v>0.05500608131948503</v>
+        <v>0.05375440524967345</v>
       </c>
       <c r="F8">
-        <v>0.8104086033921405</v>
+        <v>0.7588742947745644</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.009194374310844827</v>
+        <v>0.007537038160009168</v>
       </c>
       <c r="I8">
-        <v>0.01039656414378687</v>
+        <v>0.00786094470971932</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.4835305522853162</v>
+        <v>0.4352118891263537</v>
       </c>
       <c r="L8">
-        <v>0.0612811616675657</v>
+        <v>0.1939800516154584</v>
       </c>
       <c r="M8">
-        <v>0.8835157546998289</v>
+        <v>0.1356847181165577</v>
       </c>
       <c r="N8">
-        <v>0.208843911412842</v>
+        <v>0.05782041190180998</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8827284735012029</v>
       </c>
       <c r="P8">
-        <v>1.033281273978129</v>
+        <v>0.2239899742941276</v>
       </c>
       <c r="Q8">
-        <v>2.063604090682901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9913743603817249</v>
+      </c>
+      <c r="S8">
+        <v>1.907475468610556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.346059352602936</v>
+        <v>1.275986500810802</v>
       </c>
       <c r="C9">
-        <v>0.1220825420146454</v>
+        <v>0.1290420148184097</v>
       </c>
       <c r="D9">
-        <v>0.1104799341774623</v>
+        <v>0.1143764890989587</v>
       </c>
       <c r="E9">
-        <v>0.06459430249684672</v>
+        <v>0.06265979259777055</v>
       </c>
       <c r="F9">
-        <v>0.8729055444211298</v>
+        <v>0.8097028565267053</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.004560900705139481</v>
+        <v>0.003600607089689012</v>
       </c>
       <c r="I9">
-        <v>0.00572716373956883</v>
+        <v>0.00427495348483653</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.4923289803709139</v>
+        <v>0.4369916756076186</v>
       </c>
       <c r="L9">
-        <v>0.06826376585283356</v>
+        <v>0.1849569285190285</v>
       </c>
       <c r="M9">
-        <v>1.181896401516155</v>
+        <v>0.1448201395966429</v>
       </c>
       <c r="N9">
-        <v>0.2663826761781394</v>
+        <v>0.06378446549970285</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.179368751590204</v>
       </c>
       <c r="P9">
-        <v>0.9611903147149619</v>
+        <v>0.2856044111797758</v>
       </c>
       <c r="Q9">
-        <v>2.16355685232972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9256005318417415</v>
+      </c>
+      <c r="S9">
+        <v>1.976750136248086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.581600939567778</v>
+        <v>1.494985657464696</v>
       </c>
       <c r="C10">
-        <v>0.1396768212816113</v>
+        <v>0.1522503896538154</v>
       </c>
       <c r="D10">
-        <v>0.1259268034045391</v>
+        <v>0.1304291934136472</v>
       </c>
       <c r="E10">
-        <v>0.06932992795039894</v>
+        <v>0.06695741224848106</v>
       </c>
       <c r="F10">
-        <v>0.9113713696990189</v>
+        <v>0.8400872894615929</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.002600188354037858</v>
+        <v>0.002005646423458796</v>
       </c>
       <c r="I10">
-        <v>0.003688176733246173</v>
+        <v>0.002872581556375486</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.4949555957405174</v>
+        <v>0.4349414694638902</v>
       </c>
       <c r="L10">
-        <v>0.07108188164705354</v>
+        <v>0.1770653055242306</v>
       </c>
       <c r="M10">
-        <v>1.397413282779553</v>
+        <v>0.1527010944084743</v>
       </c>
       <c r="N10">
-        <v>0.2998334531877873</v>
+        <v>0.06609021554857542</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.393417096605646</v>
       </c>
       <c r="P10">
-        <v>0.9112326863462901</v>
+        <v>0.3217413863241063</v>
       </c>
       <c r="Q10">
-        <v>2.221845060944929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8812439797321474</v>
+      </c>
+      <c r="S10">
+        <v>2.013877700012614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.614606622523894</v>
+        <v>1.52980165904475</v>
       </c>
       <c r="C11">
-        <v>0.1563727206522856</v>
+        <v>0.1708939855433016</v>
       </c>
       <c r="D11">
-        <v>0.1162961950033434</v>
+        <v>0.1204860129262642</v>
       </c>
       <c r="E11">
-        <v>0.05412960214484386</v>
+        <v>0.05223888634347063</v>
       </c>
       <c r="F11">
-        <v>0.8470269577670706</v>
+        <v>0.7805608165394275</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02114610952362739</v>
+        <v>0.02057484750912764</v>
       </c>
       <c r="I11">
-        <v>0.003778863752936346</v>
+        <v>0.003203520058970177</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.4570025717470507</v>
+        <v>0.4018513397187355</v>
       </c>
       <c r="L11">
-        <v>0.05880908609724678</v>
+        <v>0.162455740535755</v>
       </c>
       <c r="M11">
-        <v>1.462459634886358</v>
+        <v>0.1435699789840221</v>
       </c>
       <c r="N11">
-        <v>0.2383697392473749</v>
+        <v>0.05564948287987637</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.458548673278784</v>
       </c>
       <c r="P11">
-        <v>0.8920034508912718</v>
+        <v>0.2574723420680129</v>
       </c>
       <c r="Q11">
-        <v>2.06695956029759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8705841317174183</v>
+      </c>
+      <c r="S11">
+        <v>1.873181569194372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.595401391266336</v>
+        <v>1.515694292533055</v>
       </c>
       <c r="C12">
-        <v>0.1663929744324264</v>
+        <v>0.1810068193519783</v>
       </c>
       <c r="D12">
-        <v>0.1051156304713317</v>
+        <v>0.1089198866161496</v>
       </c>
       <c r="E12">
-        <v>0.04314924190515868</v>
+        <v>0.04172284361238532</v>
       </c>
       <c r="F12">
-        <v>0.7881940733043464</v>
+        <v>0.7272737622581076</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05997263187929747</v>
+        <v>0.05938173252445722</v>
       </c>
       <c r="I12">
-        <v>0.003724073506233161</v>
+        <v>0.003162040561504931</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.4272860825994442</v>
+        <v>0.3769165712091898</v>
       </c>
       <c r="L12">
-        <v>0.05437098884458691</v>
+        <v>0.1530133503468587</v>
       </c>
       <c r="M12">
-        <v>1.471430370245145</v>
+        <v>0.1347442461352024</v>
       </c>
       <c r="N12">
-        <v>0.1853673470528037</v>
+        <v>0.05271946637735825</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.467936726456855</v>
       </c>
       <c r="P12">
-        <v>0.890812807536669</v>
+        <v>0.2016531912746586</v>
       </c>
       <c r="Q12">
-        <v>1.933137360986848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8746442113566921</v>
+      </c>
+      <c r="S12">
+        <v>1.755086733307877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.531407941120733</v>
+        <v>1.459682884402952</v>
       </c>
       <c r="C13">
-        <v>0.1726088528176604</v>
+        <v>0.1860125302421807</v>
       </c>
       <c r="D13">
-        <v>0.09230476033478396</v>
+        <v>0.0956533604650005</v>
       </c>
       <c r="E13">
-        <v>0.03468724084265418</v>
+        <v>0.03372139362272453</v>
       </c>
       <c r="F13">
-        <v>0.7277781585968484</v>
+        <v>0.6732980757128644</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1160550683801063</v>
+        <v>0.1154041262605148</v>
       </c>
       <c r="I13">
-        <v>0.003948599325242164</v>
+        <v>0.003299128626949255</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.4003347572378999</v>
+        <v>0.355041854852324</v>
       </c>
       <c r="L13">
-        <v>0.05539935622027237</v>
+        <v>0.1459092845600214</v>
       </c>
       <c r="M13">
-        <v>1.437298206783311</v>
+        <v>0.1252449683750534</v>
       </c>
       <c r="N13">
-        <v>0.1367446670484682</v>
+        <v>0.05504614813088793</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.434503959909335</v>
       </c>
       <c r="P13">
-        <v>0.9023964613244573</v>
+        <v>0.1501316702682303</v>
       </c>
       <c r="Q13">
-        <v>1.800723550869492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.889345417428288</v>
+      </c>
+      <c r="S13">
+        <v>1.640646019682364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.465937976638969</v>
+        <v>1.401046906935051</v>
       </c>
       <c r="C14">
-        <v>0.1754609190869303</v>
+        <v>0.1874291600236262</v>
       </c>
       <c r="D14">
-        <v>0.0827591587652492</v>
+        <v>0.08576445344579753</v>
       </c>
       <c r="E14">
-        <v>0.03029719467492686</v>
+        <v>0.02963691032533466</v>
       </c>
       <c r="F14">
-        <v>0.6849162876126016</v>
+        <v>0.6352555061147669</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1657144947656235</v>
+        <v>0.1650022821465313</v>
       </c>
       <c r="I14">
-        <v>0.004338150130746676</v>
+        <v>0.003593450974396895</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.3827330136248968</v>
+        <v>0.3410573313514647</v>
       </c>
       <c r="L14">
-        <v>0.0593773895287093</v>
+        <v>0.141804350513377</v>
       </c>
       <c r="M14">
-        <v>1.393926572656255</v>
+        <v>0.1184465335513352</v>
       </c>
       <c r="N14">
-        <v>0.1059639799096743</v>
+        <v>0.05978960542110556</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.391738748037824</v>
       </c>
       <c r="P14">
-        <v>0.9166573788619132</v>
+        <v>0.1173571070425439</v>
       </c>
       <c r="Q14">
-        <v>1.70869469570836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.9047245828035244</v>
+      </c>
+      <c r="S14">
+        <v>1.561978348539341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.439801282545204</v>
+        <v>1.377165748160337</v>
       </c>
       <c r="C15">
-        <v>0.1755407198143075</v>
+        <v>0.1869362144826994</v>
       </c>
       <c r="D15">
-        <v>0.08009144345830066</v>
+        <v>0.08299893600420916</v>
       </c>
       <c r="E15">
-        <v>0.02940770221807121</v>
+        <v>0.02882271073386278</v>
       </c>
       <c r="F15">
-        <v>0.67357696886355</v>
+        <v>0.6252941187617083</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1783750347619844</v>
+        <v>0.1776336482816276</v>
       </c>
       <c r="I15">
-        <v>0.004632774460612055</v>
+        <v>0.003861991402033027</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.378589969752543</v>
+        <v>0.3378896677081435</v>
       </c>
       <c r="L15">
-        <v>0.06068526581183775</v>
+        <v>0.1410554851986543</v>
       </c>
       <c r="M15">
-        <v>1.374232494138113</v>
+        <v>0.1165932912247349</v>
       </c>
       <c r="N15">
-        <v>0.098700953351198</v>
+        <v>0.06124987893224443</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.372246026421692</v>
       </c>
       <c r="P15">
-        <v>0.9223630088418986</v>
+        <v>0.1095894048452095</v>
       </c>
       <c r="Q15">
-        <v>1.685044243530612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.910346017705443</v>
+      </c>
+      <c r="S15">
+        <v>1.542117481964368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.351604810523696</v>
+        <v>1.294294460168317</v>
       </c>
       <c r="C16">
-        <v>0.1667651982911451</v>
+        <v>0.1759284665336338</v>
       </c>
       <c r="D16">
-        <v>0.0764241364523599</v>
+        <v>0.07918543500228736</v>
       </c>
       <c r="E16">
-        <v>0.02927145287647637</v>
+        <v>0.02872391441378497</v>
       </c>
       <c r="F16">
-        <v>0.6688895466691207</v>
+        <v>0.6224735471173304</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1664687250833055</v>
+        <v>0.1655739291747693</v>
       </c>
       <c r="I16">
-        <v>0.005576658015938207</v>
+        <v>0.004589202587618857</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.3823058433628788</v>
+        <v>0.342353756203309</v>
       </c>
       <c r="L16">
-        <v>0.05912835335275979</v>
+        <v>0.1443094117533761</v>
       </c>
       <c r="M16">
-        <v>1.288796231262353</v>
+        <v>0.1156079761866575</v>
       </c>
       <c r="N16">
-        <v>0.09571471974835077</v>
+        <v>0.05947020171497641</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.287300313891819</v>
       </c>
       <c r="P16">
-        <v>0.939088356328277</v>
+        <v>0.1062544757389006</v>
       </c>
       <c r="Q16">
-        <v>1.684597579347539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.923675677079757</v>
+      </c>
+      <c r="S16">
+        <v>1.546378212255675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.3185427039312</v>
+        <v>1.261715260132917</v>
       </c>
       <c r="C17">
-        <v>0.1585567137509969</v>
+        <v>0.166820421670721</v>
       </c>
       <c r="D17">
-        <v>0.07859847289406474</v>
+        <v>0.08142465655748055</v>
       </c>
       <c r="E17">
-        <v>0.031213121519853</v>
+        <v>0.03054820026533189</v>
       </c>
       <c r="F17">
-        <v>0.6878476667426838</v>
+        <v>0.6403924213723755</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1291780384448913</v>
+        <v>0.1281954419870175</v>
       </c>
       <c r="I17">
-        <v>0.00613206650724063</v>
+        <v>0.005029356696908849</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.3943782998689791</v>
+        <v>0.3531601438370942</v>
       </c>
       <c r="L17">
-        <v>0.05527319346258963</v>
+        <v>0.1492397757820658</v>
       </c>
       <c r="M17">
-        <v>1.246375011554875</v>
+        <v>0.1182760678769927</v>
       </c>
       <c r="N17">
-        <v>0.1089808423696326</v>
+        <v>0.05509201593596558</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.244931010236542</v>
       </c>
       <c r="P17">
-        <v>0.9444618306433945</v>
+        <v>0.1202513948832262</v>
       </c>
       <c r="Q17">
-        <v>1.732808479989416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9260056559229852</v>
+      </c>
+      <c r="S17">
+        <v>1.591335758389008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.330738858769791</v>
+        <v>1.270316723961173</v>
       </c>
       <c r="C18">
-        <v>0.1495360635360186</v>
+        <v>0.1577752706635351</v>
       </c>
       <c r="D18">
-        <v>0.08621906281832281</v>
+        <v>0.0893042447240262</v>
       </c>
       <c r="E18">
-        <v>0.03656850208254525</v>
+        <v>0.03562059068324608</v>
       </c>
       <c r="F18">
-        <v>0.731213278640837</v>
+        <v>0.6799786964457795</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07644999101662364</v>
+        <v>0.0754503696964548</v>
       </c>
       <c r="I18">
-        <v>0.006029097806113271</v>
+        <v>0.004849872767828778</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.4164140868070341</v>
+        <v>0.3718985660956164</v>
       </c>
       <c r="L18">
-        <v>0.05205431841300268</v>
+        <v>0.1567792542052029</v>
       </c>
       <c r="M18">
-        <v>1.235955615991941</v>
+        <v>0.1245863867524974</v>
       </c>
       <c r="N18">
-        <v>0.1409873782923228</v>
+        <v>0.05095424927941838</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.234213857722665</v>
       </c>
       <c r="P18">
-        <v>0.9423785271113836</v>
+        <v>0.1540745473214571</v>
       </c>
       <c r="Q18">
-        <v>1.833093434226441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9204449247933546</v>
+      </c>
+      <c r="S18">
+        <v>1.680778412296448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.374164341173611</v>
+        <v>1.307194008788542</v>
       </c>
       <c r="C19">
-        <v>0.1420974583934509</v>
+        <v>0.1510446334578717</v>
       </c>
       <c r="D19">
-        <v>0.09824909881884736</v>
+        <v>0.1017487312723091</v>
       </c>
       <c r="E19">
-        <v>0.04630301544534632</v>
+        <v>0.04492400800941887</v>
       </c>
       <c r="F19">
-        <v>0.7903218426767893</v>
+        <v>0.7332556583735013</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03081432541539186</v>
+        <v>0.02987611685887259</v>
       </c>
       <c r="I19">
-        <v>0.005964817700411906</v>
+        <v>0.004860886544227228</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.4443019767064982</v>
+        <v>0.3950318325332063</v>
       </c>
       <c r="L19">
-        <v>0.05411455394477294</v>
+        <v>0.1656317516254582</v>
       </c>
       <c r="M19">
-        <v>1.251385103588404</v>
+        <v>0.1330814362158961</v>
       </c>
       <c r="N19">
-        <v>0.1917428276936946</v>
+        <v>0.05172054641002521</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.249089597644712</v>
       </c>
       <c r="P19">
-        <v>0.9378813381383893</v>
+        <v>0.2075863931319617</v>
       </c>
       <c r="Q19">
-        <v>1.964723018131934</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9121462766435116</v>
+      </c>
+      <c r="S19">
+        <v>1.796006361414896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.512211992040562</v>
+        <v>1.4302478650078</v>
       </c>
       <c r="C20">
-        <v>0.1368370394000067</v>
+        <v>0.1482277582216085</v>
       </c>
       <c r="D20">
-        <v>0.1220651105304853</v>
+        <v>0.1264088532726362</v>
       </c>
       <c r="E20">
-        <v>0.06778632833492892</v>
+        <v>0.0655378612179085</v>
       </c>
       <c r="F20">
-        <v>0.8959637082037162</v>
+        <v>0.8270957208315792</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.003044378053586705</v>
+        <v>0.002358987889294006</v>
       </c>
       <c r="I20">
-        <v>0.005009272817709132</v>
+        <v>0.004189723534596901</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.4904995015622724</v>
+        <v>0.4320933008027161</v>
       </c>
       <c r="L20">
-        <v>0.06991201349422838</v>
+        <v>0.1778853158746365</v>
       </c>
       <c r="M20">
-        <v>1.33994683099931</v>
+        <v>0.149171209992911</v>
       </c>
       <c r="N20">
-        <v>0.2919907714211121</v>
+        <v>0.06509391938150166</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.336363090694192</v>
       </c>
       <c r="P20">
-        <v>0.9238176467861745</v>
+        <v>0.313208297352972</v>
       </c>
       <c r="Q20">
-        <v>2.19183592396169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8928843094908707</v>
+      </c>
+      <c r="S20">
+        <v>1.99042202117451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.706441138011883</v>
+        <v>1.609781259080989</v>
       </c>
       <c r="C21">
-        <v>0.1488536159676954</v>
+        <v>0.1647595004243101</v>
       </c>
       <c r="D21">
-        <v>0.1369648649894231</v>
+        <v>0.141886927947894</v>
       </c>
       <c r="E21">
-        <v>0.07489062783148981</v>
+        <v>0.07217618700798312</v>
       </c>
       <c r="F21">
-        <v>0.9419421970741411</v>
+        <v>0.8651433861897786</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001490815523156885</v>
+        <v>0.001068313868811455</v>
       </c>
       <c r="I21">
-        <v>0.003593528533184731</v>
+        <v>0.003193539323829597</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.5005984137722663</v>
+        <v>0.4371882956156234</v>
       </c>
       <c r="L21">
-        <v>0.07533008356941551</v>
+        <v>0.174309030117616</v>
       </c>
       <c r="M21">
-        <v>1.511308096667278</v>
+        <v>0.1585346516028991</v>
       </c>
       <c r="N21">
-        <v>0.3322136297135501</v>
+        <v>0.06973579476331082</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.506352062874043</v>
       </c>
       <c r="P21">
-        <v>0.8869358940597225</v>
+        <v>0.3562754901200975</v>
       </c>
       <c r="Q21">
-        <v>2.274112849247899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8592078552645592</v>
+      </c>
+      <c r="S21">
+        <v>2.051591905122024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.832208014143163</v>
+        <v>1.726199565429567</v>
       </c>
       <c r="C22">
-        <v>0.1565002048993023</v>
+        <v>0.1752450418911025</v>
       </c>
       <c r="D22">
-        <v>0.1456195878123765</v>
+        <v>0.1508866701174441</v>
       </c>
       <c r="E22">
-        <v>0.07848661533486379</v>
+        <v>0.07550137541608137</v>
       </c>
       <c r="F22">
-        <v>0.9697709783067836</v>
+        <v>0.8880771976149973</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0008534406026510233</v>
+        <v>0.0005669628812068339</v>
       </c>
       <c r="I22">
-        <v>0.00260596873060237</v>
+        <v>0.002372574340221867</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.506628823028656</v>
+        <v>0.4401324261341664</v>
       </c>
       <c r="L22">
-        <v>0.07793481570471883</v>
+        <v>0.1717638070652789</v>
       </c>
       <c r="M22">
-        <v>1.621857209821002</v>
+        <v>0.1650114233728672</v>
       </c>
       <c r="N22">
-        <v>0.353206268745808</v>
+        <v>0.07193855694145412</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.615981830022605</v>
       </c>
       <c r="P22">
-        <v>0.8634875933130282</v>
+        <v>0.3788961575571648</v>
       </c>
       <c r="Q22">
-        <v>2.324537963615512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.838007464545651</v>
+      </c>
+      <c r="S22">
+        <v>2.088948120677145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.767880882985111</v>
+        <v>1.666797520194365</v>
       </c>
       <c r="C23">
-        <v>0.1517340117425903</v>
+        <v>0.1688277335317707</v>
       </c>
       <c r="D23">
-        <v>0.1408877027580786</v>
+        <v>0.1459684576831961</v>
       </c>
       <c r="E23">
-        <v>0.07664821485401774</v>
+        <v>0.07380564577321991</v>
       </c>
       <c r="F23">
-        <v>0.9566524975287933</v>
+        <v>0.8774916231983028</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.001166241682458713</v>
+        <v>0.0008105880244799746</v>
       </c>
       <c r="I23">
-        <v>0.002782447538425714</v>
+        <v>0.002403626149066973</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.5047080829404109</v>
+        <v>0.4397350269924729</v>
       </c>
       <c r="L23">
-        <v>0.07668218806523797</v>
+        <v>0.1735219592256101</v>
       </c>
       <c r="M23">
-        <v>1.563115275098681</v>
+        <v>0.1619987237286864</v>
       </c>
       <c r="N23">
-        <v>0.341467178198954</v>
+        <v>0.07088823624627949</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.557735542979117</v>
       </c>
       <c r="P23">
-        <v>0.8760238641473439</v>
+        <v>0.3662684618178957</v>
       </c>
       <c r="Q23">
-        <v>2.302494545442727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8491342590669451</v>
+      </c>
+      <c r="S23">
+        <v>2.073588422456282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.519593832178657</v>
+        <v>1.436903821669404</v>
       </c>
       <c r="C24">
-        <v>0.1349522440990114</v>
+        <v>0.1461524006033272</v>
       </c>
       <c r="D24">
-        <v>0.1232158547638562</v>
+        <v>0.1276020342888557</v>
       </c>
       <c r="E24">
-        <v>0.06955233772846725</v>
+        <v>0.0672457865955387</v>
       </c>
       <c r="F24">
-        <v>0.9053873132589203</v>
+        <v>0.8357438018025576</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.002848940255884891</v>
+        <v>0.002174181767856442</v>
       </c>
       <c r="I24">
-        <v>0.004461446939366454</v>
+        <v>0.003549099552440538</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.4959022045694823</v>
+        <v>0.4367552570859345</v>
       </c>
       <c r="L24">
-        <v>0.07167967209709758</v>
+        <v>0.1796798966954931</v>
       </c>
       <c r="M24">
-        <v>1.34049023277359</v>
+        <v>0.1508664155086663</v>
       </c>
       <c r="N24">
-        <v>0.2980527469234744</v>
+        <v>0.06666622836279856</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.336854328808897</v>
       </c>
       <c r="P24">
-        <v>0.9247093124543051</v>
+        <v>0.319576022868489</v>
       </c>
       <c r="Q24">
-        <v>2.214604389636776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.892880288074954</v>
+      </c>
+      <c r="S24">
+        <v>2.010904019392058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.251512280544148</v>
+        <v>1.187857850456197</v>
       </c>
       <c r="C25">
-        <v>0.1171043421334232</v>
+        <v>0.1222321059125022</v>
       </c>
       <c r="D25">
-        <v>0.1042816766341303</v>
+        <v>0.1079373536389028</v>
       </c>
       <c r="E25">
-        <v>0.06188681860763801</v>
+        <v>0.06014273908481549</v>
       </c>
       <c r="F25">
-        <v>0.8527870711132408</v>
+        <v>0.7929504190295091</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.005636057682619877</v>
+        <v>0.004507109084590177</v>
       </c>
       <c r="I25">
-        <v>0.007274321038115872</v>
+        <v>0.005636824607049284</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.4876961760376943</v>
+        <v>0.4344976567468848</v>
       </c>
       <c r="L25">
-        <v>0.06619570220887994</v>
+        <v>0.1866110112392931</v>
       </c>
       <c r="M25">
-        <v>1.100775930327359</v>
+        <v>0.1411920531793633</v>
       </c>
       <c r="N25">
-        <v>0.2515410064534649</v>
+        <v>0.06201059719365531</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.09876579932407</v>
       </c>
       <c r="P25">
-        <v>0.9798921964646103</v>
+        <v>0.26965454760591</v>
       </c>
       <c r="Q25">
-        <v>2.127454977352414</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9428409182025916</v>
+      </c>
+      <c r="S25">
+        <v>1.949630625439568</v>
       </c>
     </row>
   </sheetData>
